--- a/config_1.5/activity_exchange_server.xlsx
+++ b/config_1.5/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="185">
   <si>
     <t>id|</t>
   </si>
@@ -962,12 +962,126 @@
     <t>新年日历</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>欢乐庆典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯棉毛巾1条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小太阳取暖器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰清香大米</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>“prop_3d_fish_nuclear_bomb_3”,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>“prop_3d_fish_nuclear_bomb_2”,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>“prop_3d_fish_nuclear_bomb_1”,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prop_hammer_4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prop_hammer_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hlqd_xx",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,8 +1153,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,6 +1227,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1147,7 +1273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1172,16 +1298,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1342,6 +1458,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1623,8 +1760,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1712,7 +1849,7 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="7"/>
@@ -1748,7 +1885,7 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="12"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
@@ -1809,7 +1946,7 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="17">
         <v>4</v>
       </c>
       <c r="K5" s="4">
@@ -1840,7 +1977,7 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="17">
         <v>5</v>
       </c>
       <c r="K6" s="4">
@@ -1873,7 +2010,7 @@
       <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="17">
         <v>6</v>
       </c>
       <c r="K7" s="4">
@@ -1882,290 +2019,339 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" s="35" customFormat="1" ht="16.5">
-      <c r="A8" s="32">
+    <row r="8" spans="1:16" s="31" customFormat="1" ht="16.5">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="28">
         <v>1607385600</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="28">
         <v>1607961599</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="32">
-        <v>1</v>
-      </c>
-      <c r="I8" s="32">
+      <c r="H8" s="28">
+        <v>1</v>
+      </c>
+      <c r="I8" s="28">
         <v>7</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="30">
         <v>7</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="31">
         <v>0</v>
       </c>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-    </row>
-    <row r="9" spans="1:16" s="35" customFormat="1" ht="16.5">
-      <c r="A9" s="32">
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:16" s="31" customFormat="1" ht="16.5">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="28">
         <v>1607385600</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="28">
         <v>1607961599</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="32">
-        <v>1</v>
-      </c>
-      <c r="I9" s="32">
+      <c r="H9" s="28">
+        <v>1</v>
+      </c>
+      <c r="I9" s="28">
         <v>8</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="30">
         <v>8</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="31">
         <v>0</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-    </row>
-    <row r="10" spans="1:16" s="49" customFormat="1" ht="16.5">
-      <c r="A10" s="45">
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:16" s="45" customFormat="1" ht="16.5">
+      <c r="A10" s="41">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="41">
         <v>1607990400</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="41">
         <v>1608566399</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="47" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="45">
-        <v>1</v>
-      </c>
-      <c r="I10" s="45">
+      <c r="H10" s="41">
+        <v>1</v>
+      </c>
+      <c r="I10" s="41">
         <v>9</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="44">
         <v>9</v>
       </c>
-      <c r="K10" s="49">
-        <v>1</v>
-      </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-    </row>
-    <row r="11" spans="1:16" s="49" customFormat="1" ht="16.5">
-      <c r="A11" s="45">
+      <c r="K10" s="45">
+        <v>1</v>
+      </c>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+    </row>
+    <row r="11" spans="1:16" s="45" customFormat="1" ht="16.5">
+      <c r="A11" s="41">
         <v>10</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="41">
         <v>1607990400</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="41">
         <v>1608566399</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="47" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="45">
-        <v>1</v>
-      </c>
-      <c r="I11" s="45">
+      <c r="H11" s="41">
+        <v>1</v>
+      </c>
+      <c r="I11" s="41">
         <v>10</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="44">
         <v>10</v>
       </c>
-      <c r="K11" s="49">
-        <v>1</v>
-      </c>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-    </row>
-    <row r="12" spans="1:16" s="62" customFormat="1" ht="16.5">
-      <c r="A12" s="59">
+      <c r="K11" s="45">
+        <v>1</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+    </row>
+    <row r="12" spans="1:16" s="58" customFormat="1" ht="16.5">
+      <c r="A12" s="55">
         <v>11</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="67">
         <v>1609200000</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="67">
         <v>1609775999</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60" t="s">
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="59">
-        <v>1</v>
-      </c>
-      <c r="I12" s="59">
+      <c r="H12" s="55">
+        <v>1</v>
+      </c>
+      <c r="I12" s="55">
         <v>11</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="57">
         <v>11</v>
       </c>
-      <c r="K12" s="62">
-        <v>1</v>
-      </c>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-    </row>
-    <row r="13" spans="1:16" s="62" customFormat="1" ht="16.5">
-      <c r="A13" s="59">
+      <c r="K12" s="58">
+        <v>1</v>
+      </c>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+    </row>
+    <row r="13" spans="1:16" s="58" customFormat="1" ht="16.5">
+      <c r="A13" s="55">
         <v>12</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="67">
         <v>1609200000</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="67">
         <v>1609775999</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60" t="s">
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="59">
-        <v>1</v>
-      </c>
-      <c r="I13" s="59">
+      <c r="H13" s="55">
+        <v>1</v>
+      </c>
+      <c r="I13" s="55">
         <v>12</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="57">
         <v>12</v>
       </c>
-      <c r="K13" s="62">
-        <v>1</v>
-      </c>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-    </row>
-    <row r="14" spans="1:16" s="62" customFormat="1" ht="16.5">
-      <c r="A14" s="59">
+      <c r="K13" s="58">
+        <v>1</v>
+      </c>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+    </row>
+    <row r="14" spans="1:16" s="58" customFormat="1" ht="16.5">
+      <c r="A14" s="55">
         <v>13</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="67">
         <v>1609200000</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="67">
         <v>1609775999</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60" t="s">
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="59">
-        <v>1</v>
-      </c>
-      <c r="I14" s="59">
+      <c r="H14" s="55">
+        <v>1</v>
+      </c>
+      <c r="I14" s="55">
         <v>13</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14" s="57">
         <v>13</v>
       </c>
-      <c r="K14" s="62">
-        <v>1</v>
-      </c>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-    </row>
-    <row r="15" spans="1:16" s="62" customFormat="1" ht="16.5">
-      <c r="A15" s="59">
+      <c r="K14" s="58">
+        <v>1</v>
+      </c>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+    </row>
+    <row r="15" spans="1:16" s="58" customFormat="1" ht="16.5">
+      <c r="A15" s="55">
         <v>14</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="67">
         <v>1609200000</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="67">
         <v>1609775999</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60" t="s">
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="H15" s="59">
-        <v>1</v>
-      </c>
-      <c r="I15" s="59">
+      <c r="H15" s="55">
+        <v>1</v>
+      </c>
+      <c r="I15" s="55">
         <v>14</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15" s="57">
         <v>14</v>
       </c>
-      <c r="K15" s="62">
-        <v>1</v>
-      </c>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-    </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="16.5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:16" customFormat="1">
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="K15" s="58">
+        <v>1</v>
+      </c>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+    </row>
+    <row r="16" spans="1:16" s="71" customFormat="1" ht="16.5">
+      <c r="A16" s="68">
+        <v>15</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="70">
+        <v>1609804800</v>
+      </c>
+      <c r="D16" s="70">
+        <v>1610380799</v>
+      </c>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" s="68">
+        <v>1</v>
+      </c>
+      <c r="I16" s="68">
+        <v>15</v>
+      </c>
+      <c r="J16" s="68">
+        <v>15</v>
+      </c>
+      <c r="K16" s="71">
+        <v>1</v>
+      </c>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+    </row>
+    <row r="17" spans="1:16" s="71" customFormat="1" ht="16.5">
+      <c r="A17" s="68">
+        <v>16</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="70">
+        <v>1609804800</v>
+      </c>
+      <c r="D17" s="70">
+        <v>1610380799</v>
+      </c>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="68">
+        <v>1</v>
+      </c>
+      <c r="I17" s="68">
+        <v>16</v>
+      </c>
+      <c r="J17" s="68">
+        <v>16</v>
+      </c>
+      <c r="K17" s="71">
+        <v>1</v>
+      </c>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
     </row>
     <row r="18" spans="1:16" customFormat="1">
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
@@ -2296,10 +2482,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2422,74 +2608,100 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="45" customFormat="1">
-      <c r="A10" s="45">
+    <row r="10" spans="1:7" s="41" customFormat="1">
+      <c r="A10" s="41">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="43" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="45" customFormat="1">
-      <c r="A11" s="45">
+    <row r="11" spans="1:7" s="41" customFormat="1">
+      <c r="A11" s="41">
         <v>10</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="43" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="59" customFormat="1">
-      <c r="A12" s="59">
+    <row r="12" spans="1:7" s="55" customFormat="1">
+      <c r="A12" s="55">
         <v>11</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="56" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="59" customFormat="1">
-      <c r="A13" s="59">
+    <row r="13" spans="1:7" s="55" customFormat="1">
+      <c r="A13" s="55">
         <v>12</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="56" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="59">
+      <c r="A14" s="55">
         <v>13</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="59">
+      <c r="A15" s="55">
         <v>14</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="56" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="68" customFormat="1">
+      <c r="A16" s="55">
+        <v>15</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="1:3" s="68" customFormat="1">
+      <c r="A17" s="55">
+        <v>16</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2505,10 +2717,10 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E99" sqref="E99"/>
+      <selection pane="bottomRight" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2517,7 +2729,7 @@
     <col min="2" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31" style="3" customWidth="1"/>
     <col min="7" max="7" width="22.25" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.875" style="1" customWidth="1"/>
     <col min="9" max="10" width="27.875" style="1" customWidth="1"/>
@@ -2542,10 +2754,10 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2655,7 +2867,7 @@
       <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2675,7 +2887,7 @@
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2698,7 +2910,7 @@
       <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2819,7 +3031,7 @@
       <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
@@ -2831,21 +3043,21 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="13">
         <v>3</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="13">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="1">
@@ -2856,21 +3068,21 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="13">
         <v>3</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="1">
@@ -2881,20 +3093,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="13">
         <v>3</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="13">
         <v>5</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="15" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="1">
@@ -2905,20 +3117,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="13">
         <v>3</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <v>6</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="15" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="1">
@@ -2929,20 +3141,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>3</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="13">
         <v>7</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="15" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="1">
@@ -2953,21 +3165,21 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="13">
         <v>4</v>
       </c>
-      <c r="C18" s="17">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="17" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="13" t="s">
         <v>93</v>
       </c>
       <c r="J18" s="1">
@@ -2978,21 +3190,21 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="13">
         <v>4</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="13">
         <v>2</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="17" t="s">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="13" t="s">
         <v>94</v>
       </c>
       <c r="J19" s="1">
@@ -3003,21 +3215,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="13">
         <v>4</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="13">
         <v>3</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="17" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>95</v>
       </c>
       <c r="J20" s="1">
@@ -3028,21 +3240,21 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="13">
         <v>4</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3050,21 +3262,21 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="13">
         <v>4</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="13">
         <v>5</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="19" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="13" t="s">
         <v>97</v>
       </c>
       <c r="J22" s="1">
@@ -3075,21 +3287,21 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="13">
         <v>4</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="13">
         <v>6</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="19" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="13" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="1">
@@ -3100,21 +3312,21 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>4</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="13">
         <v>7</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="19" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="13" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="1">
@@ -3125,2921 +3337,3192 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="13">
         <v>4</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="13">
         <v>8</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="19" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="13" t="s">
         <v>100</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="22" customFormat="1">
-      <c r="A26" s="22">
+    <row r="26" spans="1:10" s="18" customFormat="1">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="19">
         <v>5</v>
       </c>
-      <c r="C26" s="23">
-        <v>1</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="19">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="23" t="s">
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="22" customFormat="1">
-      <c r="A27" s="22">
+      <c r="J26" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="18" customFormat="1">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="19">
         <v>5</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="19">
         <v>2</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="23" t="s">
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="22" customFormat="1">
-      <c r="A28" s="22">
+      <c r="J27" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="18" customFormat="1">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="19">
         <v>5</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="19">
         <v>3</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="23" t="s">
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="22" customFormat="1">
-      <c r="A29" s="22">
+      <c r="J28" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="18" customFormat="1">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="19">
         <v>5</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="19">
         <v>4</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="25" t="s">
+      <c r="E29" s="19"/>
+      <c r="F29" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="22" customFormat="1">
-      <c r="A30" s="22">
+    <row r="30" spans="1:10" s="18" customFormat="1">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="19">
         <v>5</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="19">
         <v>5</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="25" t="s">
+      <c r="E30" s="19"/>
+      <c r="F30" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="22" customFormat="1">
-      <c r="A31" s="22">
+    <row r="31" spans="1:10" s="18" customFormat="1">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="19">
         <v>5</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="19">
         <v>6</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="25" t="s">
+      <c r="E31" s="19"/>
+      <c r="F31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="22" customFormat="1">
-      <c r="A32" s="22">
+    <row r="32" spans="1:10" s="18" customFormat="1">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="19">
         <v>5</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="19">
         <v>7</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="25" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="22" customFormat="1">
-      <c r="A33" s="22">
+      <c r="J32" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="18" customFormat="1">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="19">
         <v>5</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="19">
         <v>8</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="25" t="s">
+      <c r="E33" s="19"/>
+      <c r="F33" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="27" customFormat="1">
-      <c r="A34" s="22">
+      <c r="J33" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="23" customFormat="1">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="24">
         <v>6</v>
       </c>
-      <c r="C34" s="28">
-        <v>1</v>
-      </c>
-      <c r="D34" s="29" t="s">
+      <c r="C34" s="24">
+        <v>1</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="28" t="s">
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="27" customFormat="1">
-      <c r="A35" s="22">
+      <c r="J34" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="23" customFormat="1">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="24">
         <v>6</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="24">
         <v>2</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="28" t="s">
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="27" customFormat="1">
-      <c r="A36" s="22">
+      <c r="J35" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="23" customFormat="1">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="24">
         <v>6</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="24">
         <v>3</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="28" t="s">
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="27" customFormat="1">
-      <c r="A37" s="22">
+      <c r="J36" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="23" customFormat="1">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="24">
         <v>6</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="24">
         <v>4</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="30" t="s">
+      <c r="E37" s="24"/>
+      <c r="F37" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="27" customFormat="1">
-      <c r="A38" s="22">
+    <row r="38" spans="1:10" s="23" customFormat="1">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="24">
         <v>6</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="24">
         <v>5</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="30" t="s">
+      <c r="E38" s="24"/>
+      <c r="F38" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="H38" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J38" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="27" customFormat="1">
-      <c r="A39" s="22">
+    <row r="39" spans="1:10" s="23" customFormat="1">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="24">
         <v>6</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="24">
         <v>6</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="30" t="s">
+      <c r="E39" s="24"/>
+      <c r="F39" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="31" t="s">
+      <c r="H39" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="27">
+      <c r="J39" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="27" customFormat="1">
-      <c r="A40" s="22">
+    <row r="40" spans="1:10" s="23" customFormat="1">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="24">
         <v>6</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="24">
         <v>7</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="30" t="s">
+      <c r="E40" s="24"/>
+      <c r="F40" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="30" t="s">
+      <c r="G40" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="31" t="s">
+      <c r="H40" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="27" customFormat="1">
-      <c r="A41" s="22">
+      <c r="J40" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="23" customFormat="1">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="24">
         <v>6</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="24">
         <v>8</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="30" t="s">
+      <c r="E41" s="24"/>
+      <c r="F41" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="H41" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="40" customFormat="1">
-      <c r="A42" s="40">
+      <c r="J41" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="36" customFormat="1">
+      <c r="A42" s="36">
         <v>41</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42" s="37">
         <v>7</v>
       </c>
-      <c r="C42" s="41">
-        <v>1</v>
-      </c>
-      <c r="D42" s="42" t="s">
+      <c r="C42" s="37">
+        <v>1</v>
+      </c>
+      <c r="D42" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="41" t="s">
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="40" customFormat="1">
-      <c r="A43" s="40">
+      <c r="J42" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="36" customFormat="1">
+      <c r="A43" s="36">
         <v>42</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43" s="37">
         <v>7</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43" s="37">
         <v>2</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="41" t="s">
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="40" customFormat="1">
-      <c r="A44" s="40">
+      <c r="J43" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="36" customFormat="1">
+      <c r="A44" s="36">
         <v>43</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44" s="37">
         <v>7</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="37">
         <v>3</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="41" t="s">
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="J44" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="40" customFormat="1">
-      <c r="A45" s="40">
+      <c r="J44" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="36" customFormat="1">
+      <c r="A45" s="36">
         <v>44</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45" s="37">
         <v>7</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="37">
         <v>4</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="43" t="s">
+      <c r="E45" s="37"/>
+      <c r="F45" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="43" t="s">
+      <c r="G45" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="40" customFormat="1">
-      <c r="A46" s="40">
+    <row r="46" spans="1:10" s="36" customFormat="1">
+      <c r="A46" s="36">
         <v>45</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46" s="37">
         <v>7</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="37">
         <v>5</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="43" t="s">
+      <c r="E46" s="37"/>
+      <c r="F46" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="43" t="s">
+      <c r="G46" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="J46" s="40">
+      <c r="J46" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="40" customFormat="1">
-      <c r="A47" s="40">
+    <row r="47" spans="1:10" s="36" customFormat="1">
+      <c r="A47" s="36">
         <v>46</v>
       </c>
-      <c r="B47" s="41">
+      <c r="B47" s="37">
         <v>7</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="37">
         <v>6</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="43" t="s">
+      <c r="E47" s="37"/>
+      <c r="F47" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="H47" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="40">
+      <c r="J47" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="40" customFormat="1">
-      <c r="A48" s="40">
+    <row r="48" spans="1:10" s="36" customFormat="1">
+      <c r="A48" s="36">
         <v>47</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48" s="37">
         <v>7</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="37">
         <v>7</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="43" t="s">
+      <c r="E48" s="37"/>
+      <c r="F48" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="43" t="s">
+      <c r="G48" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="44" t="s">
+      <c r="H48" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="40" customFormat="1">
-      <c r="A49" s="40">
+      <c r="J48" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="36" customFormat="1">
+      <c r="A49" s="36">
         <v>48</v>
       </c>
-      <c r="B49" s="41">
+      <c r="B49" s="37">
         <v>7</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="37">
         <v>8</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="43" t="s">
+      <c r="E49" s="37"/>
+      <c r="F49" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="G49" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="41" t="s">
+      <c r="H49" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="J49" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="32" customFormat="1">
-      <c r="A50" s="32">
+      <c r="J49" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="28" customFormat="1">
+      <c r="A50" s="28">
         <v>49</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="33">
         <v>8</v>
       </c>
-      <c r="C50" s="37">
-        <v>1</v>
-      </c>
-      <c r="D50" s="38" t="s">
+      <c r="C50" s="33">
+        <v>1</v>
+      </c>
+      <c r="D50" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="37" t="s">
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="32" customFormat="1">
-      <c r="A51" s="32">
+      <c r="J50" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="28" customFormat="1">
+      <c r="A51" s="28">
         <v>50</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="33">
         <v>8</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="33">
         <v>2</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="37" t="s">
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="32" customFormat="1">
-      <c r="A52" s="32">
+      <c r="J51" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="28" customFormat="1">
+      <c r="A52" s="28">
         <v>51</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="33">
         <v>8</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="33">
         <v>3</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="37" t="s">
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="32" customFormat="1">
-      <c r="A53" s="32">
+      <c r="J52" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="28" customFormat="1">
+      <c r="A53" s="28">
         <v>52</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="33">
         <v>8</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="33">
         <v>4</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="37"/>
-      <c r="F53" s="39" t="s">
+      <c r="E53" s="33"/>
+      <c r="F53" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G53" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="37" t="s">
+      <c r="H53" s="33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="32" customFormat="1">
-      <c r="A54" s="32">
+    <row r="54" spans="1:10" s="28" customFormat="1">
+      <c r="A54" s="28">
         <v>53</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B54" s="33">
         <v>8</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="33">
         <v>5</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="37"/>
-      <c r="F54" s="39" t="s">
+      <c r="E54" s="33"/>
+      <c r="F54" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="39" t="s">
+      <c r="G54" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="33" t="s">
+      <c r="H54" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="J54" s="32">
+      <c r="J54" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="32" customFormat="1">
-      <c r="A55" s="32">
+    <row r="55" spans="1:10" s="28" customFormat="1">
+      <c r="A55" s="28">
         <v>54</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B55" s="33">
         <v>8</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="33">
         <v>6</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="39" t="s">
+      <c r="E55" s="33"/>
+      <c r="F55" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="39" t="s">
+      <c r="G55" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H55" s="33" t="s">
+      <c r="H55" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="J55" s="32">
+      <c r="J55" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="32" customFormat="1">
-      <c r="A56" s="32">
+    <row r="56" spans="1:10" s="28" customFormat="1">
+      <c r="A56" s="28">
         <v>55</v>
       </c>
-      <c r="B56" s="37">
+      <c r="B56" s="33">
         <v>8</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="33">
         <v>7</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="39" t="s">
+      <c r="E56" s="33"/>
+      <c r="F56" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="39" t="s">
+      <c r="G56" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="33" t="s">
+      <c r="H56" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="J56" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="32" customFormat="1">
-      <c r="A57" s="32">
+      <c r="J56" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="28" customFormat="1">
+      <c r="A57" s="28">
         <v>56</v>
       </c>
-      <c r="B57" s="37">
+      <c r="B57" s="33">
         <v>8</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="33">
         <v>8</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="39" t="s">
+      <c r="E57" s="33"/>
+      <c r="F57" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="39" t="s">
+      <c r="G57" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="37" t="s">
+      <c r="H57" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="45" customFormat="1">
-      <c r="A58" s="45">
+      <c r="J57" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="41" customFormat="1">
+      <c r="A58" s="41">
         <v>57</v>
       </c>
-      <c r="B58" s="53">
+      <c r="B58" s="49">
         <v>9</v>
       </c>
-      <c r="C58" s="53">
-        <v>1</v>
-      </c>
-      <c r="D58" s="54" t="s">
+      <c r="C58" s="49">
+        <v>1</v>
+      </c>
+      <c r="D58" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="53" t="s">
+      <c r="E58" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="53" t="s">
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="J58" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="45" customFormat="1">
-      <c r="A59" s="45">
+      <c r="J58" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="41" customFormat="1">
+      <c r="A59" s="41">
         <v>58</v>
       </c>
-      <c r="B59" s="53">
+      <c r="B59" s="49">
         <v>9</v>
       </c>
-      <c r="C59" s="53">
+      <c r="C59" s="49">
         <v>2</v>
       </c>
-      <c r="D59" s="54" t="s">
+      <c r="D59" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="53" t="s">
+      <c r="E59" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="53" t="s">
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="J59" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="45" customFormat="1">
-      <c r="A60" s="45">
+      <c r="J59" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="41" customFormat="1">
+      <c r="A60" s="41">
         <v>59</v>
       </c>
-      <c r="B60" s="53">
+      <c r="B60" s="49">
         <v>9</v>
       </c>
-      <c r="C60" s="53">
+      <c r="C60" s="49">
         <v>3</v>
       </c>
-      <c r="D60" s="54" t="s">
+      <c r="D60" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="53" t="s">
+      <c r="E60" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="53" t="s">
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="J60" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="45" customFormat="1">
-      <c r="A61" s="45">
+      <c r="J60" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="41" customFormat="1">
+      <c r="A61" s="41">
         <v>60</v>
       </c>
-      <c r="B61" s="53">
+      <c r="B61" s="49">
         <v>9</v>
       </c>
-      <c r="C61" s="53">
+      <c r="C61" s="49">
         <v>4</v>
       </c>
-      <c r="D61" s="54" t="s">
+      <c r="D61" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="53"/>
-      <c r="F61" s="55" t="s">
+      <c r="E61" s="49"/>
+      <c r="F61" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="55" t="s">
+      <c r="G61" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="53" t="s">
+      <c r="H61" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="45" customFormat="1">
-      <c r="A62" s="45">
+    <row r="62" spans="1:10" s="41" customFormat="1">
+      <c r="A62" s="41">
         <v>61</v>
       </c>
-      <c r="B62" s="53">
+      <c r="B62" s="49">
         <v>9</v>
       </c>
-      <c r="C62" s="53">
+      <c r="C62" s="49">
         <v>5</v>
       </c>
-      <c r="D62" s="54" t="s">
+      <c r="D62" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="53"/>
-      <c r="F62" s="55" t="s">
+      <c r="E62" s="49"/>
+      <c r="F62" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="55" t="s">
+      <c r="G62" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="47" t="s">
+      <c r="H62" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="J62" s="45">
+      <c r="J62" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="45" customFormat="1">
-      <c r="A63" s="45">
+    <row r="63" spans="1:10" s="41" customFormat="1">
+      <c r="A63" s="41">
         <v>62</v>
       </c>
-      <c r="B63" s="53">
+      <c r="B63" s="49">
         <v>9</v>
       </c>
-      <c r="C63" s="53">
+      <c r="C63" s="49">
         <v>6</v>
       </c>
-      <c r="D63" s="54" t="s">
+      <c r="D63" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="53"/>
-      <c r="F63" s="55" t="s">
+      <c r="E63" s="49"/>
+      <c r="F63" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="55" t="s">
+      <c r="G63" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="47" t="s">
+      <c r="H63" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="J63" s="45">
+      <c r="J63" s="41">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="45" customFormat="1">
-      <c r="A64" s="45">
+    <row r="64" spans="1:10" s="41" customFormat="1">
+      <c r="A64" s="41">
         <v>63</v>
       </c>
-      <c r="B64" s="53">
+      <c r="B64" s="49">
         <v>9</v>
       </c>
-      <c r="C64" s="53">
+      <c r="C64" s="49">
         <v>7</v>
       </c>
-      <c r="D64" s="54" t="s">
+      <c r="D64" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="53"/>
-      <c r="F64" s="55" t="s">
+      <c r="E64" s="49"/>
+      <c r="F64" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="55" t="s">
+      <c r="G64" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="47" t="s">
+      <c r="H64" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="J64" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="45" customFormat="1">
-      <c r="A65" s="45">
+      <c r="J64" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="41" customFormat="1">
+      <c r="A65" s="41">
         <v>64</v>
       </c>
-      <c r="B65" s="53">
+      <c r="B65" s="49">
         <v>9</v>
       </c>
-      <c r="C65" s="53">
+      <c r="C65" s="49">
         <v>8</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="D65" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="53"/>
-      <c r="F65" s="55" t="s">
+      <c r="E65" s="49"/>
+      <c r="F65" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G65" s="55" t="s">
+      <c r="G65" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="53" t="s">
+      <c r="H65" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="J65" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="51" customFormat="1">
-      <c r="A66" s="51">
+      <c r="J65" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="47" customFormat="1">
+      <c r="A66" s="47">
         <v>65</v>
       </c>
-      <c r="B66" s="56">
+      <c r="B66" s="52">
         <v>10</v>
       </c>
-      <c r="C66" s="56">
-        <v>1</v>
-      </c>
-      <c r="D66" s="57" t="s">
+      <c r="C66" s="52">
+        <v>1</v>
+      </c>
+      <c r="D66" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="53" t="s">
+      <c r="E66" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="56" t="s">
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="J66" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="51" customFormat="1">
-      <c r="A67" s="51">
+      <c r="J66" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="47" customFormat="1">
+      <c r="A67" s="47">
         <v>66</v>
       </c>
-      <c r="B67" s="56">
+      <c r="B67" s="52">
         <v>10</v>
       </c>
-      <c r="C67" s="56">
+      <c r="C67" s="52">
         <v>2</v>
       </c>
-      <c r="D67" s="57" t="s">
+      <c r="D67" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="53" t="s">
+      <c r="E67" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="56" t="s">
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="J67" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="51" customFormat="1">
-      <c r="A68" s="51">
+      <c r="J67" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="47" customFormat="1">
+      <c r="A68" s="47">
         <v>67</v>
       </c>
-      <c r="B68" s="56">
+      <c r="B68" s="52">
         <v>10</v>
       </c>
-      <c r="C68" s="56">
+      <c r="C68" s="52">
         <v>3</v>
       </c>
-      <c r="D68" s="57" t="s">
+      <c r="D68" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="53" t="s">
+      <c r="E68" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="56" t="s">
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="J68" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="51" customFormat="1">
-      <c r="A69" s="51">
+      <c r="J68" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="47" customFormat="1">
+      <c r="A69" s="47">
         <v>68</v>
       </c>
-      <c r="B69" s="56">
+      <c r="B69" s="52">
         <v>10</v>
       </c>
-      <c r="C69" s="56">
+      <c r="C69" s="52">
         <v>4</v>
       </c>
-      <c r="D69" s="57" t="s">
+      <c r="D69" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="56"/>
-      <c r="F69" s="58" t="s">
+      <c r="E69" s="52"/>
+      <c r="F69" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="58" t="s">
+      <c r="G69" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="H69" s="56" t="s">
+      <c r="H69" s="52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="51" customFormat="1">
-      <c r="A70" s="51">
+    <row r="70" spans="1:10" s="47" customFormat="1">
+      <c r="A70" s="47">
         <v>69</v>
       </c>
-      <c r="B70" s="56">
+      <c r="B70" s="52">
         <v>10</v>
       </c>
-      <c r="C70" s="56">
+      <c r="C70" s="52">
         <v>5</v>
       </c>
-      <c r="D70" s="57" t="s">
+      <c r="D70" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="56"/>
-      <c r="F70" s="58" t="s">
+      <c r="E70" s="52"/>
+      <c r="F70" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="58" t="s">
+      <c r="G70" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="52" t="s">
+      <c r="H70" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="J70" s="51">
+      <c r="J70" s="47">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="51" customFormat="1">
-      <c r="A71" s="51">
+    <row r="71" spans="1:10" s="47" customFormat="1">
+      <c r="A71" s="47">
         <v>70</v>
       </c>
-      <c r="B71" s="56">
+      <c r="B71" s="52">
         <v>10</v>
       </c>
-      <c r="C71" s="56">
+      <c r="C71" s="52">
         <v>6</v>
       </c>
-      <c r="D71" s="57" t="s">
+      <c r="D71" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="56"/>
-      <c r="F71" s="58" t="s">
+      <c r="E71" s="52"/>
+      <c r="F71" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="58" t="s">
+      <c r="G71" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="52" t="s">
+      <c r="H71" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="J71" s="51">
+      <c r="J71" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="51" customFormat="1">
-      <c r="A72" s="51">
+    <row r="72" spans="1:10" s="47" customFormat="1">
+      <c r="A72" s="47">
         <v>71</v>
       </c>
-      <c r="B72" s="56">
+      <c r="B72" s="52">
         <v>10</v>
       </c>
-      <c r="C72" s="56">
+      <c r="C72" s="52">
         <v>7</v>
       </c>
-      <c r="D72" s="57" t="s">
+      <c r="D72" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="56"/>
-      <c r="F72" s="58" t="s">
+      <c r="E72" s="52"/>
+      <c r="F72" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="58" t="s">
+      <c r="G72" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="52" t="s">
+      <c r="H72" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="J72" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="51" customFormat="1">
-      <c r="A73" s="51">
+      <c r="J72" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="47" customFormat="1">
+      <c r="A73" s="47">
         <v>72</v>
       </c>
-      <c r="B73" s="56">
+      <c r="B73" s="52">
         <v>10</v>
       </c>
-      <c r="C73" s="56">
+      <c r="C73" s="52">
         <v>8</v>
       </c>
-      <c r="D73" s="57" t="s">
+      <c r="D73" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="56"/>
-      <c r="F73" s="58" t="s">
+      <c r="E73" s="52"/>
+      <c r="F73" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="58" t="s">
+      <c r="G73" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H73" s="56" t="s">
+      <c r="H73" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="J73" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="59" customFormat="1">
-      <c r="A74" s="59">
+      <c r="J73" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="55" customFormat="1">
+      <c r="A74" s="55">
         <v>73</v>
       </c>
-      <c r="B74" s="64">
+      <c r="B74" s="60">
         <v>11</v>
       </c>
-      <c r="C74" s="64">
-        <v>1</v>
-      </c>
-      <c r="D74" s="54" t="s">
+      <c r="C74" s="60">
+        <v>1</v>
+      </c>
+      <c r="D74" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="64" t="s">
+      <c r="E74" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="64" t="s">
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="J74" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="59" customFormat="1">
-      <c r="A75" s="59">
+      <c r="J74" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="55" customFormat="1">
+      <c r="A75" s="55">
         <v>74</v>
       </c>
-      <c r="B75" s="64">
+      <c r="B75" s="60">
         <v>11</v>
       </c>
-      <c r="C75" s="64">
+      <c r="C75" s="60">
         <v>2</v>
       </c>
-      <c r="D75" s="54" t="s">
+      <c r="D75" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E75" s="64" t="s">
+      <c r="E75" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="64" t="s">
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="59" customFormat="1">
-      <c r="A76" s="59">
+      <c r="J75" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="55" customFormat="1">
+      <c r="A76" s="55">
         <v>75</v>
       </c>
-      <c r="B76" s="64">
+      <c r="B76" s="60">
         <v>11</v>
       </c>
-      <c r="C76" s="64">
+      <c r="C76" s="60">
         <v>3</v>
       </c>
-      <c r="D76" s="54" t="s">
+      <c r="D76" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="64" t="s">
+      <c r="E76" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="64" t="s">
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="J76" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="59" customFormat="1">
-      <c r="A77" s="59">
+      <c r="J76" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="55" customFormat="1">
+      <c r="A77" s="55">
         <v>76</v>
       </c>
-      <c r="B77" s="64">
+      <c r="B77" s="60">
         <v>11</v>
       </c>
-      <c r="C77" s="64">
+      <c r="C77" s="60">
         <v>4</v>
       </c>
-      <c r="D77" s="54" t="s">
+      <c r="D77" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="64"/>
-      <c r="F77" s="65" t="s">
+      <c r="E77" s="60"/>
+      <c r="F77" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G77" s="65" t="s">
+      <c r="G77" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="H77" s="64" t="s">
+      <c r="H77" s="60" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="59" customFormat="1">
-      <c r="A78" s="59">
+    <row r="78" spans="1:10" s="55" customFormat="1">
+      <c r="A78" s="55">
         <v>77</v>
       </c>
-      <c r="B78" s="64">
+      <c r="B78" s="60">
         <v>11</v>
       </c>
-      <c r="C78" s="64">
+      <c r="C78" s="60">
         <v>5</v>
       </c>
-      <c r="D78" s="54" t="s">
+      <c r="D78" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E78" s="64"/>
-      <c r="F78" s="65" t="s">
+      <c r="E78" s="60"/>
+      <c r="F78" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="65" t="s">
+      <c r="G78" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="60" t="s">
+      <c r="H78" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="J78" s="59">
+      <c r="J78" s="55">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="59" customFormat="1">
-      <c r="A79" s="59">
+    <row r="79" spans="1:10" s="55" customFormat="1">
+      <c r="A79" s="55">
         <v>78</v>
       </c>
-      <c r="B79" s="64">
+      <c r="B79" s="60">
         <v>11</v>
       </c>
-      <c r="C79" s="64">
+      <c r="C79" s="60">
         <v>6</v>
       </c>
-      <c r="D79" s="54" t="s">
+      <c r="D79" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E79" s="64"/>
-      <c r="F79" s="65" t="s">
+      <c r="E79" s="60"/>
+      <c r="F79" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="65" t="s">
+      <c r="G79" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="H79" s="60" t="s">
+      <c r="H79" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="59">
+      <c r="J79" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="59" customFormat="1">
-      <c r="A80" s="59">
+    <row r="80" spans="1:10" s="55" customFormat="1">
+      <c r="A80" s="55">
         <v>79</v>
       </c>
-      <c r="B80" s="64">
+      <c r="B80" s="60">
         <v>11</v>
       </c>
-      <c r="C80" s="64">
+      <c r="C80" s="60">
         <v>7</v>
       </c>
-      <c r="D80" s="54" t="s">
+      <c r="D80" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="64"/>
-      <c r="F80" s="65" t="s">
+      <c r="E80" s="60"/>
+      <c r="F80" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="65" t="s">
+      <c r="G80" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="60" t="s">
+      <c r="H80" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="J80" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="59" customFormat="1">
-      <c r="A81" s="59">
+      <c r="J80" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="55" customFormat="1">
+      <c r="A81" s="55">
         <v>80</v>
       </c>
-      <c r="B81" s="64">
+      <c r="B81" s="60">
         <v>11</v>
       </c>
-      <c r="C81" s="64">
+      <c r="C81" s="60">
         <v>8</v>
       </c>
-      <c r="D81" s="54" t="s">
+      <c r="D81" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="64"/>
-      <c r="F81" s="65" t="s">
+      <c r="E81" s="60"/>
+      <c r="F81" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="65" t="s">
+      <c r="G81" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="64" t="s">
+      <c r="H81" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="J81" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="59" customFormat="1">
-      <c r="A82" s="66">
+      <c r="J81" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="55" customFormat="1">
+      <c r="A82" s="62">
         <v>81</v>
       </c>
-      <c r="B82" s="67">
+      <c r="B82" s="63">
         <v>12</v>
       </c>
-      <c r="C82" s="67">
-        <v>1</v>
-      </c>
-      <c r="D82" s="68" t="s">
+      <c r="C82" s="63">
+        <v>1</v>
+      </c>
+      <c r="D82" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="67" t="s">
+      <c r="E82" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="67" t="s">
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="59" customFormat="1">
-      <c r="A83" s="66">
+      <c r="I82" s="62"/>
+      <c r="J82" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="55" customFormat="1">
+      <c r="A83" s="62">
         <v>82</v>
       </c>
-      <c r="B83" s="67">
+      <c r="B83" s="63">
         <v>12</v>
       </c>
-      <c r="C83" s="67">
+      <c r="C83" s="63">
         <v>2</v>
       </c>
-      <c r="D83" s="68" t="s">
+      <c r="D83" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="67" t="s">
+      <c r="E83" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="67" t="s">
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="59" customFormat="1">
-      <c r="A84" s="66">
+      <c r="I83" s="62"/>
+      <c r="J83" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="55" customFormat="1">
+      <c r="A84" s="62">
         <v>83</v>
       </c>
-      <c r="B84" s="67">
+      <c r="B84" s="63">
         <v>12</v>
       </c>
-      <c r="C84" s="67">
+      <c r="C84" s="63">
         <v>3</v>
       </c>
-      <c r="D84" s="68" t="s">
+      <c r="D84" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="67" t="s">
+      <c r="E84" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="67" t="s">
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="59" customFormat="1">
-      <c r="A85" s="66">
+      <c r="I84" s="62"/>
+      <c r="J84" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="55" customFormat="1">
+      <c r="A85" s="62">
         <v>84</v>
       </c>
-      <c r="B85" s="67">
+      <c r="B85" s="63">
         <v>12</v>
       </c>
-      <c r="C85" s="67">
+      <c r="C85" s="63">
         <v>4</v>
       </c>
-      <c r="D85" s="68" t="s">
+      <c r="D85" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="67"/>
-      <c r="F85" s="69" t="s">
+      <c r="E85" s="63"/>
+      <c r="F85" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G85" s="69" t="s">
+      <c r="G85" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="H85" s="67" t="s">
+      <c r="H85" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-    </row>
-    <row r="86" spans="1:10" s="59" customFormat="1">
-      <c r="A86" s="66">
+      <c r="I85" s="62"/>
+      <c r="J85" s="62"/>
+    </row>
+    <row r="86" spans="1:10" s="55" customFormat="1">
+      <c r="A86" s="62">
         <v>85</v>
       </c>
-      <c r="B86" s="67">
+      <c r="B86" s="63">
         <v>12</v>
       </c>
-      <c r="C86" s="67">
+      <c r="C86" s="63">
         <v>5</v>
       </c>
-      <c r="D86" s="68" t="s">
+      <c r="D86" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="67"/>
-      <c r="F86" s="69" t="s">
+      <c r="E86" s="63"/>
+      <c r="F86" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="69" t="s">
+      <c r="G86" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="70" t="s">
+      <c r="H86" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66">
+      <c r="I86" s="62"/>
+      <c r="J86" s="62">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="59" customFormat="1">
-      <c r="A87" s="66">
+    <row r="87" spans="1:10" s="55" customFormat="1">
+      <c r="A87" s="62">
         <v>86</v>
       </c>
-      <c r="B87" s="67">
+      <c r="B87" s="63">
         <v>12</v>
       </c>
-      <c r="C87" s="67">
+      <c r="C87" s="63">
         <v>6</v>
       </c>
-      <c r="D87" s="68" t="s">
+      <c r="D87" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E87" s="67"/>
-      <c r="F87" s="69" t="s">
+      <c r="E87" s="63"/>
+      <c r="F87" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="69" t="s">
+      <c r="G87" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="H87" s="70" t="s">
+      <c r="H87" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66">
+      <c r="I87" s="62"/>
+      <c r="J87" s="62">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="59" customFormat="1">
-      <c r="A88" s="66">
+    <row r="88" spans="1:10" s="55" customFormat="1">
+      <c r="A88" s="62">
         <v>87</v>
       </c>
-      <c r="B88" s="67">
+      <c r="B88" s="63">
         <v>12</v>
       </c>
-      <c r="C88" s="67">
+      <c r="C88" s="63">
         <v>7</v>
       </c>
-      <c r="D88" s="68" t="s">
+      <c r="D88" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="67"/>
-      <c r="F88" s="69" t="s">
+      <c r="E88" s="63"/>
+      <c r="F88" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="69" t="s">
+      <c r="G88" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="70" t="s">
+      <c r="H88" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="I88" s="66"/>
-      <c r="J88" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="59" customFormat="1">
-      <c r="A89" s="66">
+      <c r="I88" s="62"/>
+      <c r="J88" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="55" customFormat="1">
+      <c r="A89" s="62">
         <v>88</v>
       </c>
-      <c r="B89" s="67">
+      <c r="B89" s="63">
         <v>12</v>
       </c>
-      <c r="C89" s="67">
+      <c r="C89" s="63">
         <v>8</v>
       </c>
-      <c r="D89" s="68" t="s">
+      <c r="D89" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="67"/>
-      <c r="F89" s="69" t="s">
+      <c r="E89" s="63"/>
+      <c r="F89" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="69" t="s">
+      <c r="G89" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="67" t="s">
+      <c r="H89" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66">
+      <c r="I89" s="62"/>
+      <c r="J89" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="8" customFormat="1">
-      <c r="A90" s="66">
+      <c r="A90" s="62">
         <v>89</v>
       </c>
-      <c r="B90" s="64">
+      <c r="B90" s="60">
         <v>13</v>
       </c>
-      <c r="C90" s="64">
-        <v>1</v>
-      </c>
-      <c r="D90" s="54" t="s">
+      <c r="C90" s="60">
+        <v>1</v>
+      </c>
+      <c r="D90" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E90" s="64" t="s">
+      <c r="E90" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="64" t="s">
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59">
+      <c r="I90" s="55"/>
+      <c r="J90" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="8" customFormat="1">
-      <c r="A91" s="66">
+      <c r="A91" s="62">
         <v>90</v>
       </c>
-      <c r="B91" s="64">
+      <c r="B91" s="60">
         <v>13</v>
       </c>
-      <c r="C91" s="64">
+      <c r="C91" s="60">
         <v>2</v>
       </c>
-      <c r="D91" s="54" t="s">
+      <c r="D91" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E91" s="64" t="s">
+      <c r="E91" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="F91" s="65"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="64" t="s">
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="I91" s="59"/>
-      <c r="J91" s="59">
+      <c r="I91" s="55"/>
+      <c r="J91" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="8" customFormat="1">
-      <c r="A92" s="66">
+      <c r="A92" s="62">
         <v>91</v>
       </c>
-      <c r="B92" s="64">
+      <c r="B92" s="60">
         <v>13</v>
       </c>
-      <c r="C92" s="64">
+      <c r="C92" s="60">
         <v>3</v>
       </c>
-      <c r="D92" s="54" t="s">
+      <c r="D92" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="64" t="s">
+      <c r="E92" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="64" t="s">
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59">
+      <c r="I92" s="55"/>
+      <c r="J92" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="8" customFormat="1">
-      <c r="A93" s="66">
+      <c r="A93" s="62">
         <v>92</v>
       </c>
-      <c r="B93" s="64">
+      <c r="B93" s="60">
         <v>13</v>
       </c>
-      <c r="C93" s="64">
+      <c r="C93" s="60">
         <v>4</v>
       </c>
-      <c r="D93" s="54" t="s">
+      <c r="D93" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E93" s="64"/>
-      <c r="F93" s="65" t="s">
+      <c r="E93" s="60"/>
+      <c r="F93" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G93" s="65" t="s">
+      <c r="G93" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="H93" s="64" t="s">
+      <c r="H93" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="I93" s="59"/>
-      <c r="J93" s="59"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="55"/>
     </row>
     <row r="94" spans="1:10" s="8" customFormat="1">
-      <c r="A94" s="66">
+      <c r="A94" s="62">
         <v>93</v>
       </c>
-      <c r="B94" s="64">
+      <c r="B94" s="60">
         <v>13</v>
       </c>
-      <c r="C94" s="64">
+      <c r="C94" s="60">
         <v>5</v>
       </c>
-      <c r="D94" s="54" t="s">
+      <c r="D94" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E94" s="64"/>
-      <c r="F94" s="65" t="s">
+      <c r="E94" s="60"/>
+      <c r="F94" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G94" s="65" t="s">
+      <c r="G94" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="60" t="s">
+      <c r="H94" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59">
+      <c r="I94" s="55"/>
+      <c r="J94" s="55">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="8" customFormat="1">
-      <c r="A95" s="66">
+      <c r="A95" s="62">
         <v>94</v>
       </c>
-      <c r="B95" s="64">
+      <c r="B95" s="60">
         <v>13</v>
       </c>
-      <c r="C95" s="64">
+      <c r="C95" s="60">
         <v>6</v>
       </c>
-      <c r="D95" s="54" t="s">
+      <c r="D95" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E95" s="64"/>
-      <c r="F95" s="65" t="s">
+      <c r="E95" s="60"/>
+      <c r="F95" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="H95" s="60" t="s">
+      <c r="H95" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="I95" s="59"/>
-      <c r="J95" s="59">
+      <c r="I95" s="55"/>
+      <c r="J95" s="55">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="8" customFormat="1">
-      <c r="A96" s="66">
+      <c r="A96" s="62">
         <v>95</v>
       </c>
-      <c r="B96" s="64">
+      <c r="B96" s="60">
         <v>13</v>
       </c>
-      <c r="C96" s="64">
+      <c r="C96" s="60">
         <v>7</v>
       </c>
-      <c r="D96" s="54" t="s">
+      <c r="D96" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="64"/>
-      <c r="F96" s="65" t="s">
+      <c r="E96" s="60"/>
+      <c r="F96" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G96" s="65" t="s">
+      <c r="G96" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="H96" s="60" t="s">
+      <c r="H96" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="I96" s="59"/>
-      <c r="J96" s="59">
+      <c r="I96" s="55"/>
+      <c r="J96" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="8" customFormat="1">
-      <c r="A97" s="66">
+      <c r="A97" s="62">
         <v>96</v>
       </c>
-      <c r="B97" s="64">
+      <c r="B97" s="60">
         <v>13</v>
       </c>
-      <c r="C97" s="64">
+      <c r="C97" s="60">
         <v>8</v>
       </c>
-      <c r="D97" s="54" t="s">
+      <c r="D97" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="64"/>
-      <c r="F97" s="65" t="s">
+      <c r="E97" s="60"/>
+      <c r="F97" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G97" s="65" t="s">
+      <c r="G97" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="H97" s="64" t="s">
+      <c r="H97" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="I97" s="59"/>
-      <c r="J97" s="59">
+      <c r="I97" s="55"/>
+      <c r="J97" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="8" customFormat="1">
-      <c r="A98" s="66">
+      <c r="A98" s="62">
         <v>97</v>
       </c>
-      <c r="B98" s="67">
+      <c r="B98" s="63">
         <v>14</v>
       </c>
-      <c r="C98" s="67">
-        <v>1</v>
-      </c>
-      <c r="D98" s="68" t="s">
+      <c r="C98" s="63">
+        <v>1</v>
+      </c>
+      <c r="D98" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E98" s="64" t="s">
+      <c r="E98" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="67" t="s">
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="I98" s="66"/>
-      <c r="J98" s="66">
+      <c r="I98" s="62"/>
+      <c r="J98" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="8" customFormat="1">
-      <c r="A99" s="66">
+      <c r="A99" s="62">
         <v>98</v>
       </c>
-      <c r="B99" s="67">
+      <c r="B99" s="63">
         <v>14</v>
       </c>
-      <c r="C99" s="67">
+      <c r="C99" s="63">
         <v>2</v>
       </c>
-      <c r="D99" s="68" t="s">
+      <c r="D99" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E99" s="64" t="s">
+      <c r="E99" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="67" t="s">
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="I99" s="66"/>
-      <c r="J99" s="66">
+      <c r="I99" s="62"/>
+      <c r="J99" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="8" customFormat="1">
-      <c r="A100" s="66">
+      <c r="A100" s="62">
         <v>99</v>
       </c>
-      <c r="B100" s="67">
+      <c r="B100" s="63">
         <v>14</v>
       </c>
-      <c r="C100" s="67">
+      <c r="C100" s="63">
         <v>3</v>
       </c>
-      <c r="D100" s="68" t="s">
+      <c r="D100" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E100" s="64" t="s">
+      <c r="E100" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="67" t="s">
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I100" s="66"/>
-      <c r="J100" s="66">
+      <c r="I100" s="62"/>
+      <c r="J100" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="8" customFormat="1">
-      <c r="A101" s="66">
+      <c r="A101" s="62">
         <v>100</v>
       </c>
-      <c r="B101" s="67">
+      <c r="B101" s="63">
         <v>14</v>
       </c>
-      <c r="C101" s="67">
+      <c r="C101" s="63">
         <v>4</v>
       </c>
-      <c r="D101" s="68" t="s">
+      <c r="D101" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="67"/>
-      <c r="F101" s="69" t="s">
+      <c r="E101" s="63"/>
+      <c r="F101" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="69" t="s">
+      <c r="G101" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="H101" s="67" t="s">
+      <c r="H101" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
+      <c r="I101" s="62"/>
+      <c r="J101" s="62"/>
     </row>
     <row r="102" spans="1:10" s="8" customFormat="1">
-      <c r="A102" s="66">
+      <c r="A102" s="62">
         <v>101</v>
       </c>
-      <c r="B102" s="67">
+      <c r="B102" s="63">
         <v>14</v>
       </c>
-      <c r="C102" s="67">
+      <c r="C102" s="63">
         <v>5</v>
       </c>
-      <c r="D102" s="68" t="s">
+      <c r="D102" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E102" s="67"/>
-      <c r="F102" s="69" t="s">
+      <c r="E102" s="63"/>
+      <c r="F102" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="69" t="s">
+      <c r="G102" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="70" t="s">
+      <c r="H102" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="I102" s="66"/>
-      <c r="J102" s="66">
+      <c r="I102" s="62"/>
+      <c r="J102" s="62">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="8" customFormat="1">
-      <c r="A103" s="66">
+      <c r="A103" s="62">
         <v>102</v>
       </c>
-      <c r="B103" s="67">
+      <c r="B103" s="63">
         <v>14</v>
       </c>
-      <c r="C103" s="67">
+      <c r="C103" s="63">
         <v>6</v>
       </c>
-      <c r="D103" s="68" t="s">
+      <c r="D103" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E103" s="67"/>
-      <c r="F103" s="69" t="s">
+      <c r="E103" s="63"/>
+      <c r="F103" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="69" t="s">
+      <c r="G103" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="H103" s="70" t="s">
+      <c r="H103" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66">
+      <c r="I103" s="62"/>
+      <c r="J103" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="8" customFormat="1">
-      <c r="A104" s="66">
+      <c r="A104" s="62">
         <v>103</v>
       </c>
-      <c r="B104" s="67">
+      <c r="B104" s="63">
         <v>14</v>
       </c>
-      <c r="C104" s="67">
+      <c r="C104" s="63">
         <v>7</v>
       </c>
-      <c r="D104" s="68" t="s">
+      <c r="D104" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E104" s="67"/>
-      <c r="F104" s="69" t="s">
+      <c r="E104" s="63"/>
+      <c r="F104" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G104" s="69" t="s">
+      <c r="G104" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H104" s="70" t="s">
+      <c r="H104" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66">
+      <c r="I104" s="62"/>
+      <c r="J104" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="8" customFormat="1">
-      <c r="A105" s="66">
+      <c r="A105" s="62">
         <v>104</v>
       </c>
-      <c r="B105" s="67">
+      <c r="B105" s="63">
         <v>14</v>
       </c>
-      <c r="C105" s="67">
+      <c r="C105" s="63">
         <v>8</v>
       </c>
-      <c r="D105" s="68" t="s">
+      <c r="D105" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E105" s="67"/>
-      <c r="F105" s="69" t="s">
+      <c r="E105" s="63"/>
+      <c r="F105" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G105" s="69" t="s">
+      <c r="G105" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="H105" s="67" t="s">
+      <c r="H105" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66">
+      <c r="I105" s="62"/>
+      <c r="J105" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="8" customFormat="1">
-      <c r="A106" s="13"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="17"/>
+      <c r="A106" s="62">
+        <v>105</v>
+      </c>
+      <c r="B106" s="60">
+        <v>15</v>
+      </c>
+      <c r="C106" s="60">
+        <v>1</v>
+      </c>
+      <c r="D106" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E106" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="F106" s="61"/>
+      <c r="G106" s="61"/>
+      <c r="H106" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="I106" s="55"/>
+      <c r="J106" s="55">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:10" s="8" customFormat="1">
-      <c r="A107" s="13"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="17"/>
+      <c r="A107" s="62">
+        <v>106</v>
+      </c>
+      <c r="B107" s="60">
+        <v>15</v>
+      </c>
+      <c r="C107" s="60">
+        <v>2</v>
+      </c>
+      <c r="D107" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E107" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F107" s="61"/>
+      <c r="G107" s="61"/>
+      <c r="H107" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="I107" s="55"/>
+      <c r="J107" s="55">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:10" s="8" customFormat="1">
-      <c r="A108" s="13"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="17"/>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="13"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="17"/>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="13"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="17"/>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="13"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="17"/>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="13"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="17"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="13"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="17"/>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="13"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="17"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="13"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="17"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="13"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="17"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="13"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="17"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="13"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="17"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="13"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="17"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="13"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="17"/>
-    </row>
-    <row r="121" spans="1:8" s="8" customFormat="1">
-      <c r="A121" s="13"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="17"/>
-    </row>
-    <row r="122" spans="1:8" s="8" customFormat="1">
-      <c r="A122" s="13"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="17"/>
-    </row>
-    <row r="123" spans="1:8" s="8" customFormat="1">
-      <c r="A123" s="13"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="17"/>
-    </row>
-    <row r="124" spans="1:8" s="8" customFormat="1">
-      <c r="A124" s="13"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="17"/>
-    </row>
-    <row r="125" spans="1:8" s="8" customFormat="1">
-      <c r="A125" s="13"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="17"/>
-    </row>
-    <row r="126" spans="1:8" s="8" customFormat="1">
-      <c r="A126" s="13"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="17"/>
-    </row>
-    <row r="127" spans="1:8" s="8" customFormat="1">
-      <c r="A127" s="13"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="17"/>
-    </row>
-    <row r="128" spans="1:8" s="8" customFormat="1">
-      <c r="A128" s="13"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="17"/>
+      <c r="A108" s="62">
+        <v>107</v>
+      </c>
+      <c r="B108" s="60">
+        <v>15</v>
+      </c>
+      <c r="C108" s="60">
+        <v>3</v>
+      </c>
+      <c r="D108" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E108" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F108" s="61"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I108" s="55"/>
+      <c r="J108" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="8" customFormat="1">
+      <c r="A109" s="62">
+        <v>108</v>
+      </c>
+      <c r="B109" s="60">
+        <v>15</v>
+      </c>
+      <c r="C109" s="60">
+        <v>4</v>
+      </c>
+      <c r="D109" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E109" s="60"/>
+      <c r="F109" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G109" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="H109" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="I109" s="55"/>
+      <c r="J109" s="55"/>
+    </row>
+    <row r="110" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A110" s="62">
+        <v>109</v>
+      </c>
+      <c r="B110" s="60">
+        <v>15</v>
+      </c>
+      <c r="C110" s="60">
+        <v>5</v>
+      </c>
+      <c r="D110" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E110" s="60"/>
+      <c r="F110" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="G110" s="61">
+        <v>1</v>
+      </c>
+      <c r="H110" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="I110" s="55"/>
+      <c r="J110" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A111" s="62">
+        <v>110</v>
+      </c>
+      <c r="B111" s="60">
+        <v>15</v>
+      </c>
+      <c r="C111" s="60">
+        <v>6</v>
+      </c>
+      <c r="D111" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E111" s="60"/>
+      <c r="F111" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="G111" s="61">
+        <v>1</v>
+      </c>
+      <c r="H111" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="I111" s="55"/>
+      <c r="J111" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="8" customFormat="1">
+      <c r="A112" s="62">
+        <v>111</v>
+      </c>
+      <c r="B112" s="60">
+        <v>15</v>
+      </c>
+      <c r="C112" s="60">
+        <v>7</v>
+      </c>
+      <c r="D112" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E112" s="60"/>
+      <c r="F112" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="H112" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="I112" s="55"/>
+      <c r="J112" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A113" s="62">
+        <v>112</v>
+      </c>
+      <c r="B113" s="60">
+        <v>15</v>
+      </c>
+      <c r="C113" s="60">
+        <v>8</v>
+      </c>
+      <c r="D113" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E113" s="60"/>
+      <c r="F113" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="G113" s="61">
+        <v>1</v>
+      </c>
+      <c r="H113" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="I113" s="55"/>
+      <c r="J113" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="8" customFormat="1">
+      <c r="A114" s="62">
+        <v>113</v>
+      </c>
+      <c r="B114" s="63">
+        <v>16</v>
+      </c>
+      <c r="C114" s="63">
+        <v>1</v>
+      </c>
+      <c r="D114" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="F114" s="65"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="I114" s="62"/>
+      <c r="J114" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="8" customFormat="1">
+      <c r="A115" s="62">
+        <v>114</v>
+      </c>
+      <c r="B115" s="63">
+        <v>16</v>
+      </c>
+      <c r="C115" s="63">
+        <v>2</v>
+      </c>
+      <c r="D115" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="I115" s="62"/>
+      <c r="J115" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="8" customFormat="1">
+      <c r="A116" s="62">
+        <v>115</v>
+      </c>
+      <c r="B116" s="63">
+        <v>16</v>
+      </c>
+      <c r="C116" s="63">
+        <v>3</v>
+      </c>
+      <c r="D116" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E116" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I116" s="62"/>
+      <c r="J116" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="8" customFormat="1">
+      <c r="A117" s="62">
+        <v>116</v>
+      </c>
+      <c r="B117" s="63">
+        <v>16</v>
+      </c>
+      <c r="C117" s="63">
+        <v>4</v>
+      </c>
+      <c r="D117" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" s="63"/>
+      <c r="F117" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="H117" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="I117" s="62"/>
+      <c r="J117" s="62"/>
+    </row>
+    <row r="118" spans="1:10" s="8" customFormat="1">
+      <c r="A118" s="62">
+        <v>117</v>
+      </c>
+      <c r="B118" s="63">
+        <v>16</v>
+      </c>
+      <c r="C118" s="63">
+        <v>5</v>
+      </c>
+      <c r="D118" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" s="63"/>
+      <c r="F118" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G118" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H118" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="I118" s="62"/>
+      <c r="J118" s="62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="8" customFormat="1">
+      <c r="A119" s="62">
+        <v>118</v>
+      </c>
+      <c r="B119" s="63">
+        <v>16</v>
+      </c>
+      <c r="C119" s="63">
+        <v>6</v>
+      </c>
+      <c r="D119" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" s="63"/>
+      <c r="F119" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="G119" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="H119" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I119" s="62"/>
+      <c r="J119" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="8" customFormat="1">
+      <c r="A120" s="62">
+        <v>119</v>
+      </c>
+      <c r="B120" s="63">
+        <v>16</v>
+      </c>
+      <c r="C120" s="63">
+        <v>7</v>
+      </c>
+      <c r="D120" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" s="63"/>
+      <c r="F120" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G120" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="H120" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="I120" s="62"/>
+      <c r="J120" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="8" customFormat="1">
+      <c r="A121" s="62">
+        <v>120</v>
+      </c>
+      <c r="B121" s="63">
+        <v>16</v>
+      </c>
+      <c r="C121" s="63">
+        <v>8</v>
+      </c>
+      <c r="D121" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E121" s="63"/>
+      <c r="F121" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="G121" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="H121" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="I121" s="62"/>
+      <c r="J121" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="8" customFormat="1">
+      <c r="A122" s="9"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="13"/>
+    </row>
+    <row r="123" spans="1:10" s="8" customFormat="1">
+      <c r="A123" s="9"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="13"/>
+    </row>
+    <row r="124" spans="1:10" s="8" customFormat="1">
+      <c r="A124" s="9"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="13"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="13"/>
+    </row>
+    <row r="125" spans="1:10" s="8" customFormat="1">
+      <c r="A125" s="9"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="13"/>
+    </row>
+    <row r="126" spans="1:10" s="8" customFormat="1">
+      <c r="A126" s="9"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="13"/>
+    </row>
+    <row r="127" spans="1:10" s="8" customFormat="1">
+      <c r="A127" s="9"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="13"/>
+    </row>
+    <row r="128" spans="1:10" s="8" customFormat="1">
+      <c r="A128" s="9"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:8" s="8" customFormat="1">
-      <c r="A129" s="13"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="17"/>
+      <c r="A129" s="9"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="13"/>
     </row>
     <row r="130" spans="1:8" s="8" customFormat="1">
-      <c r="A130" s="13"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="17"/>
+      <c r="A130" s="9"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="13"/>
     </row>
     <row r="131" spans="1:8" s="8" customFormat="1">
-      <c r="A131" s="13"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="17"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="13"/>
     </row>
     <row r="132" spans="1:8" s="8" customFormat="1">
-      <c r="A132" s="13"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="17"/>
+      <c r="A132" s="9"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="13"/>
     </row>
     <row r="133" spans="1:8" s="8" customFormat="1">
-      <c r="A133" s="13"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="17"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="13"/>
     </row>
     <row r="134" spans="1:8" s="8" customFormat="1">
-      <c r="A134" s="13"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="17"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="13"/>
     </row>
     <row r="135" spans="1:8" s="8" customFormat="1">
-      <c r="A135" s="13"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="17"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="13"/>
     </row>
     <row r="136" spans="1:8" s="8" customFormat="1">
-      <c r="A136" s="13"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="17"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="13"/>
     </row>
     <row r="137" spans="1:8" s="8" customFormat="1">
-      <c r="A137" s="13"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="17"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="13"/>
     </row>
     <row r="138" spans="1:8" s="8" customFormat="1">
-      <c r="A138" s="13"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="17"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:8" s="8" customFormat="1">
-      <c r="A139" s="13"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="17"/>
+      <c r="A139" s="9"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="13"/>
     </row>
     <row r="140" spans="1:8" s="8" customFormat="1">
-      <c r="A140" s="13"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="17"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="13"/>
     </row>
     <row r="141" spans="1:8" s="8" customFormat="1">
-      <c r="A141" s="13"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="17"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:8" s="8" customFormat="1">
-      <c r="A142" s="13"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="17"/>
+      <c r="A142" s="9"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:8" s="8" customFormat="1">
-      <c r="A143" s="13"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="17"/>
+      <c r="A143" s="9"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:8" s="8" customFormat="1">
-      <c r="A144" s="13"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="17"/>
+      <c r="A144" s="9"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="13"/>
     </row>
     <row r="145" spans="1:12" s="8" customFormat="1">
-      <c r="A145" s="13"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="17"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="13"/>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="13"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="17"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="13"/>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="13"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="17"/>
+      <c r="A147" s="9"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="13"/>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="13"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="17"/>
+      <c r="A148" s="9"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="13"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="13"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="17"/>
+      <c r="A149" s="9"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="13"/>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="13"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="17"/>
+      <c r="A150" s="9"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="13"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="13"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="17"/>
+      <c r="A151" s="9"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="13"/>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="13"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="17"/>
+      <c r="A152" s="9"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="13"/>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="13"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="17"/>
+      <c r="A153" s="9"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="13"/>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="13"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="17"/>
+      <c r="A154" s="9"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="13"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="13"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="17"/>
+      <c r="A155" s="9"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="13"/>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="13"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="17"/>
+      <c r="A156" s="9"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="13"/>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="13"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="17"/>
+      <c r="A157" s="9"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="13"/>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="13"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="17"/>
+      <c r="A158" s="9"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="13"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="13"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="17"/>
+      <c r="A159" s="9"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="13"/>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="13"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="17"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="13"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="13"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="17"/>
+      <c r="A161" s="9"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="13"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="13"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="17"/>
+      <c r="A162" s="9"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="13"/>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="13"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="17"/>
+      <c r="A163" s="9"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="13"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="13"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="17"/>
+      <c r="A164" s="9"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="13"/>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="13"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="17"/>
+      <c r="A165" s="9"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="13"/>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="13"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="17"/>
+      <c r="A166" s="9"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="13"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="13"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="17"/>
+      <c r="A167" s="9"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="13"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="13"/>
-      <c r="B168" s="17"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="17"/>
+      <c r="A168" s="9"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="13"/>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="13"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="17"/>
+      <c r="A169" s="9"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="13"/>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="13"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="17"/>
+      <c r="A170" s="9"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="13"/>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="13"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="17"/>
+      <c r="A171" s="9"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="13"/>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="13"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="17"/>
+      <c r="A172" s="9"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="13"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="13"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="17"/>
+      <c r="A173" s="9"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="13"/>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="13"/>
-      <c r="B174" s="17"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="17"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="13"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="13"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="17"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="13"/>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="13"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="17"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="13"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="13"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="17"/>
+      <c r="A177" s="9"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="13"/>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="13"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="17"/>
+      <c r="A178" s="9"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="13"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="13"/>
-      <c r="B179" s="17"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="17"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="17"/>
+      <c r="A179" s="9"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="13"/>
     </row>
   </sheetData>
   <sortState ref="G2:G12">

--- a/config_1.5/activity_exchange_server.xlsx
+++ b/config_1.5/activity_exchange_server.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="188">
   <si>
     <t>id|</t>
   </si>
@@ -1027,6 +1027,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1054,6 +1055,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1074,6 +1076,18 @@
   </si>
   <si>
     <t>"prop_hlqd_xx",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1160,7 +1174,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1223,12 +1237,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1273,7 +1281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1356,15 +1364,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1394,15 +1393,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,15 +1419,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1457,29 +1438,38 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1760,8 +1750,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2019,339 +2009,339 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" s="31" customFormat="1" ht="16.5">
-      <c r="A8" s="28">
+    <row r="8" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="8">
         <v>1607385600</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="8">
         <v>1607961599</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="28">
-        <v>1</v>
-      </c>
-      <c r="I8" s="28">
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
         <v>7</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="17">
         <v>7</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="63">
         <v>0</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:16" s="31" customFormat="1" ht="16.5">
-      <c r="A9" s="28">
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+    </row>
+    <row r="9" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="8">
         <v>1607385600</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="8">
         <v>1607961599</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="28">
-        <v>1</v>
-      </c>
-      <c r="I9" s="28">
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
         <v>8</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="17">
         <v>8</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="63">
         <v>0</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:16" s="45" customFormat="1" ht="16.5">
-      <c r="A10" s="41">
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+    </row>
+    <row r="10" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="8">
         <v>1607990400</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="8">
         <v>1608566399</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="43" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="41">
-        <v>1</v>
-      </c>
-      <c r="I10" s="41">
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
         <v>9</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="17">
         <v>9</v>
       </c>
-      <c r="K10" s="45">
-        <v>1</v>
-      </c>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-    </row>
-    <row r="11" spans="1:16" s="45" customFormat="1" ht="16.5">
-      <c r="A11" s="41">
+      <c r="K10" s="63">
+        <v>1</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+    </row>
+    <row r="11" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="8">
         <v>1607990400</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="8">
         <v>1608566399</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="43" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="41">
-        <v>1</v>
-      </c>
-      <c r="I11" s="41">
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
         <v>10</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="17">
         <v>10</v>
       </c>
-      <c r="K11" s="45">
-        <v>1</v>
-      </c>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-    </row>
-    <row r="12" spans="1:16" s="58" customFormat="1" ht="16.5">
-      <c r="A12" s="55">
+      <c r="K11" s="63">
+        <v>1</v>
+      </c>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+    </row>
+    <row r="12" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="65">
         <v>1609200000</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="65">
         <v>1609775999</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="55">
-        <v>1</v>
-      </c>
-      <c r="I12" s="55">
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
         <v>11</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="17">
         <v>11</v>
       </c>
-      <c r="K12" s="58">
-        <v>1</v>
-      </c>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-    </row>
-    <row r="13" spans="1:16" s="58" customFormat="1" ht="16.5">
-      <c r="A13" s="55">
+      <c r="K12" s="63">
+        <v>1</v>
+      </c>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+    </row>
+    <row r="13" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="65">
         <v>1609200000</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="65">
         <v>1609775999</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="55">
-        <v>1</v>
-      </c>
-      <c r="I13" s="55">
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
         <v>12</v>
       </c>
-      <c r="J13" s="57">
+      <c r="J13" s="17">
         <v>12</v>
       </c>
-      <c r="K13" s="58">
-        <v>1</v>
-      </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-    </row>
-    <row r="14" spans="1:16" s="58" customFormat="1" ht="16.5">
-      <c r="A14" s="55">
+      <c r="K13" s="63">
+        <v>1</v>
+      </c>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+    </row>
+    <row r="14" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="65">
         <v>1609200000</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="65">
         <v>1609775999</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="55">
-        <v>1</v>
-      </c>
-      <c r="I14" s="55">
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
         <v>13</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="17">
         <v>13</v>
       </c>
-      <c r="K14" s="58">
-        <v>1</v>
-      </c>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-    </row>
-    <row r="15" spans="1:16" s="58" customFormat="1" ht="16.5">
-      <c r="A15" s="55">
+      <c r="K14" s="63">
+        <v>1</v>
+      </c>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+    </row>
+    <row r="15" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="65">
         <v>1609200000</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="65">
         <v>1609775999</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="H15" s="55">
-        <v>1</v>
-      </c>
-      <c r="I15" s="55">
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
         <v>14</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="17">
         <v>14</v>
       </c>
-      <c r="K15" s="58">
-        <v>1</v>
-      </c>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-    </row>
-    <row r="16" spans="1:16" s="71" customFormat="1" ht="16.5">
-      <c r="A16" s="68">
+      <c r="K15" s="63">
+        <v>1</v>
+      </c>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+    </row>
+    <row r="16" spans="1:16" s="67" customFormat="1" ht="16.5">
+      <c r="A16" s="53">
         <v>15</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="66">
         <v>1609804800</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="66">
         <v>1610380799</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="69" t="s">
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="68">
-        <v>1</v>
-      </c>
-      <c r="I16" s="68">
+      <c r="H16" s="53">
+        <v>1</v>
+      </c>
+      <c r="I16" s="53">
         <v>15</v>
       </c>
-      <c r="J16" s="68">
+      <c r="J16" s="53">
         <v>15</v>
       </c>
-      <c r="K16" s="71">
-        <v>1</v>
-      </c>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-    </row>
-    <row r="17" spans="1:16" s="71" customFormat="1" ht="16.5">
-      <c r="A17" s="68">
+      <c r="K16" s="67">
+        <v>1</v>
+      </c>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+    </row>
+    <row r="17" spans="1:16" s="67" customFormat="1" ht="16.5">
+      <c r="A17" s="53">
         <v>16</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="70">
+      <c r="C17" s="66">
         <v>1609804800</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="66">
         <v>1610380799</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="69" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="H17" s="68">
-        <v>1</v>
-      </c>
-      <c r="I17" s="68">
+      <c r="H17" s="53">
+        <v>1</v>
+      </c>
+      <c r="I17" s="53">
         <v>16</v>
       </c>
-      <c r="J17" s="68">
+      <c r="J17" s="53">
         <v>16</v>
       </c>
-      <c r="K17" s="71">
-        <v>1</v>
-      </c>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
+      <c r="K17" s="67">
+        <v>1</v>
+      </c>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
     </row>
     <row r="18" spans="1:16" customFormat="1">
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
@@ -2608,58 +2598,58 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="41" customFormat="1">
-      <c r="A10" s="41">
+    <row r="10" spans="1:7" s="38" customFormat="1">
+      <c r="A10" s="38">
         <v>9</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="40" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="41" customFormat="1">
-      <c r="A11" s="41">
+    <row r="11" spans="1:7" s="38" customFormat="1">
+      <c r="A11" s="38">
         <v>10</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="40" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="55" customFormat="1">
-      <c r="A12" s="55">
+    <row r="12" spans="1:7" s="49" customFormat="1">
+      <c r="A12" s="49">
         <v>11</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="50" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="55" customFormat="1">
-      <c r="A13" s="55">
+    <row r="13" spans="1:7" s="49" customFormat="1">
+      <c r="A13" s="49">
         <v>12</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="50" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="55">
+      <c r="A14" s="49">
         <v>13</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="50" t="s">
         <v>166</v>
       </c>
       <c r="D14" s="10"/>
@@ -2668,39 +2658,39 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="55">
+      <c r="A15" s="49">
         <v>14</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="50" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="68" customFormat="1">
-      <c r="A16" s="55">
+    <row r="16" spans="1:7" s="58" customFormat="1">
+      <c r="A16" s="49">
         <v>15</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-    </row>
-    <row r="17" spans="1:3" s="68" customFormat="1">
-      <c r="A17" s="55">
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:3" s="58" customFormat="1">
+      <c r="A17" s="49">
         <v>16</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="59" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2720,7 +2710,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F120" sqref="F120"/>
+      <selection pane="bottomRight" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3774,210 +3764,210 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="36" customFormat="1">
-      <c r="A42" s="36">
+    <row r="42" spans="1:10" s="33" customFormat="1">
+      <c r="A42" s="33">
         <v>41</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="34">
         <v>7</v>
       </c>
-      <c r="C42" s="37">
-        <v>1</v>
-      </c>
-      <c r="D42" s="38" t="s">
+      <c r="C42" s="34">
+        <v>1</v>
+      </c>
+      <c r="D42" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="37" t="s">
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="36" customFormat="1">
-      <c r="A43" s="36">
+      <c r="J42" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="33" customFormat="1">
+      <c r="A43" s="33">
         <v>42</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="34">
         <v>7</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="34">
         <v>2</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="37" t="s">
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="36" customFormat="1">
-      <c r="A44" s="36">
+      <c r="J43" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="33" customFormat="1">
+      <c r="A44" s="33">
         <v>43</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="34">
         <v>7</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="34">
         <v>3</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="37" t="s">
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="J44" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="36" customFormat="1">
-      <c r="A45" s="36">
+      <c r="J44" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="33" customFormat="1">
+      <c r="A45" s="33">
         <v>44</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="34">
         <v>7</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="34">
         <v>4</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="39" t="s">
+      <c r="E45" s="34"/>
+      <c r="F45" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="39" t="s">
+      <c r="G45" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="36" customFormat="1">
-      <c r="A46" s="36">
+    <row r="46" spans="1:10" s="33" customFormat="1">
+      <c r="A46" s="33">
         <v>45</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="34">
         <v>7</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="34">
         <v>5</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="39" t="s">
+      <c r="E46" s="34"/>
+      <c r="F46" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="39" t="s">
+      <c r="G46" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="36" customFormat="1">
-      <c r="A47" s="36">
+    <row r="47" spans="1:10" s="33" customFormat="1">
+      <c r="A47" s="33">
         <v>46</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="34">
         <v>7</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="34">
         <v>6</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="39" t="s">
+      <c r="E47" s="34"/>
+      <c r="F47" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="39" t="s">
+      <c r="G47" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="40" t="s">
+      <c r="H47" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="36" customFormat="1">
-      <c r="A48" s="36">
+    <row r="48" spans="1:10" s="33" customFormat="1">
+      <c r="A48" s="33">
         <v>47</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="34">
         <v>7</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="34">
         <v>7</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="39" t="s">
+      <c r="E48" s="34"/>
+      <c r="F48" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="39" t="s">
+      <c r="G48" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="40" t="s">
+      <c r="H48" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="36" customFormat="1">
-      <c r="A49" s="36">
+      <c r="J48" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="33" customFormat="1">
+      <c r="A49" s="33">
         <v>48</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="34">
         <v>7</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="34">
         <v>8</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="39" t="s">
+      <c r="E49" s="34"/>
+      <c r="F49" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="G49" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="37" t="s">
+      <c r="H49" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="J49" s="36">
+      <c r="J49" s="33">
         <v>1</v>
       </c>
     </row>
@@ -3985,21 +3975,21 @@
       <c r="A50" s="28">
         <v>49</v>
       </c>
-      <c r="B50" s="33">
+      <c r="B50" s="30">
         <v>8</v>
       </c>
-      <c r="C50" s="33">
-        <v>1</v>
-      </c>
-      <c r="D50" s="34" t="s">
+      <c r="C50" s="30">
+        <v>1</v>
+      </c>
+      <c r="D50" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="33" t="s">
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="30" t="s">
         <v>93</v>
       </c>
       <c r="J50" s="28">
@@ -4010,21 +4000,21 @@
       <c r="A51" s="28">
         <v>50</v>
       </c>
-      <c r="B51" s="33">
+      <c r="B51" s="30">
         <v>8</v>
       </c>
-      <c r="C51" s="33">
+      <c r="C51" s="30">
         <v>2</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="33" t="s">
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="30" t="s">
         <v>94</v>
       </c>
       <c r="J51" s="28">
@@ -4035,21 +4025,21 @@
       <c r="A52" s="28">
         <v>51</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="30">
         <v>8</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="30">
         <v>3</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="33" t="s">
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="30" t="s">
         <v>55</v>
       </c>
       <c r="J52" s="28">
@@ -4060,23 +4050,23 @@
       <c r="A53" s="28">
         <v>52</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="30">
         <v>8</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="30">
         <v>4</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="33"/>
-      <c r="F53" s="35" t="s">
+      <c r="E53" s="30"/>
+      <c r="F53" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="35" t="s">
+      <c r="G53" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="33" t="s">
+      <c r="H53" s="30" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4084,20 +4074,20 @@
       <c r="A54" s="28">
         <v>53</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="30">
         <v>8</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C54" s="30">
         <v>5</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="33"/>
-      <c r="F54" s="35" t="s">
+      <c r="E54" s="30"/>
+      <c r="F54" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="35" t="s">
+      <c r="G54" s="32" t="s">
         <v>62</v>
       </c>
       <c r="H54" s="29" t="s">
@@ -4111,20 +4101,20 @@
       <c r="A55" s="28">
         <v>54</v>
       </c>
-      <c r="B55" s="33">
+      <c r="B55" s="30">
         <v>8</v>
       </c>
-      <c r="C55" s="33">
+      <c r="C55" s="30">
         <v>6</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="35" t="s">
+      <c r="E55" s="30"/>
+      <c r="F55" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="35" t="s">
+      <c r="G55" s="32" t="s">
         <v>63</v>
       </c>
       <c r="H55" s="29" t="s">
@@ -4138,20 +4128,20 @@
       <c r="A56" s="28">
         <v>55</v>
       </c>
-      <c r="B56" s="33">
+      <c r="B56" s="30">
         <v>8</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="30">
         <v>7</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="33"/>
-      <c r="F56" s="35" t="s">
+      <c r="E56" s="30"/>
+      <c r="F56" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="35" t="s">
+      <c r="G56" s="32" t="s">
         <v>56</v>
       </c>
       <c r="H56" s="29" t="s">
@@ -4165,1727 +4155,1727 @@
       <c r="A57" s="28">
         <v>56</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="30">
         <v>8</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="30">
         <v>8</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="35" t="s">
+      <c r="E57" s="30"/>
+      <c r="F57" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="35" t="s">
+      <c r="G57" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="33" t="s">
+      <c r="H57" s="30" t="s">
         <v>100</v>
       </c>
       <c r="J57" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="41" customFormat="1">
-      <c r="A58" s="41">
+    <row r="58" spans="1:10" s="38" customFormat="1">
+      <c r="A58" s="38">
         <v>57</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="43">
         <v>9</v>
       </c>
-      <c r="C58" s="49">
-        <v>1</v>
-      </c>
-      <c r="D58" s="50" t="s">
+      <c r="C58" s="43">
+        <v>1</v>
+      </c>
+      <c r="D58" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="49" t="s">
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="J58" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="41" customFormat="1">
-      <c r="A59" s="41">
+      <c r="J58" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="38" customFormat="1">
+      <c r="A59" s="38">
         <v>58</v>
       </c>
-      <c r="B59" s="49">
+      <c r="B59" s="43">
         <v>9</v>
       </c>
-      <c r="C59" s="49">
+      <c r="C59" s="43">
         <v>2</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="D59" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="49" t="s">
+      <c r="E59" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="49" t="s">
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="J59" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="41" customFormat="1">
-      <c r="A60" s="41">
+      <c r="J59" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="38" customFormat="1">
+      <c r="A60" s="38">
         <v>59</v>
       </c>
-      <c r="B60" s="49">
+      <c r="B60" s="43">
         <v>9</v>
       </c>
-      <c r="C60" s="49">
+      <c r="C60" s="43">
         <v>3</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E60" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="49" t="s">
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="J60" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="41" customFormat="1">
-      <c r="A61" s="41">
+      <c r="J60" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="38" customFormat="1">
+      <c r="A61" s="38">
         <v>60</v>
       </c>
-      <c r="B61" s="49">
+      <c r="B61" s="43">
         <v>9</v>
       </c>
-      <c r="C61" s="49">
+      <c r="C61" s="43">
         <v>4</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="49"/>
-      <c r="F61" s="51" t="s">
+      <c r="E61" s="43"/>
+      <c r="F61" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="51" t="s">
+      <c r="G61" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="49" t="s">
+      <c r="H61" s="43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="41" customFormat="1">
-      <c r="A62" s="41">
+    <row r="62" spans="1:10" s="38" customFormat="1">
+      <c r="A62" s="38">
         <v>61</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="43">
         <v>9</v>
       </c>
-      <c r="C62" s="49">
+      <c r="C62" s="43">
         <v>5</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D62" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="49"/>
-      <c r="F62" s="51" t="s">
+      <c r="E62" s="43"/>
+      <c r="F62" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="51" t="s">
+      <c r="G62" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="43" t="s">
+      <c r="H62" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="J62" s="41">
+      <c r="J62" s="38">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="41" customFormat="1">
-      <c r="A63" s="41">
+    <row r="63" spans="1:10" s="38" customFormat="1">
+      <c r="A63" s="38">
         <v>62</v>
       </c>
-      <c r="B63" s="49">
+      <c r="B63" s="43">
         <v>9</v>
       </c>
-      <c r="C63" s="49">
+      <c r="C63" s="43">
         <v>6</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D63" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="49"/>
-      <c r="F63" s="51" t="s">
+      <c r="E63" s="43"/>
+      <c r="F63" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="51" t="s">
+      <c r="G63" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="43" t="s">
+      <c r="H63" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="J63" s="41">
+      <c r="J63" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="41" customFormat="1">
-      <c r="A64" s="41">
+    <row r="64" spans="1:10" s="38" customFormat="1">
+      <c r="A64" s="38">
         <v>63</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="43">
         <v>9</v>
       </c>
-      <c r="C64" s="49">
+      <c r="C64" s="43">
         <v>7</v>
       </c>
-      <c r="D64" s="50" t="s">
+      <c r="D64" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="49"/>
-      <c r="F64" s="51" t="s">
+      <c r="E64" s="43"/>
+      <c r="F64" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="51" t="s">
+      <c r="G64" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="43" t="s">
+      <c r="H64" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="J64" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="41" customFormat="1">
-      <c r="A65" s="41">
+      <c r="J64" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="38" customFormat="1">
+      <c r="A65" s="38">
         <v>64</v>
       </c>
-      <c r="B65" s="49">
+      <c r="B65" s="43">
         <v>9</v>
       </c>
-      <c r="C65" s="49">
+      <c r="C65" s="43">
         <v>8</v>
       </c>
-      <c r="D65" s="50" t="s">
+      <c r="D65" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="49"/>
-      <c r="F65" s="51" t="s">
+      <c r="E65" s="43"/>
+      <c r="F65" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G65" s="51" t="s">
+      <c r="G65" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="49" t="s">
+      <c r="H65" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="J65" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="47" customFormat="1">
-      <c r="A66" s="47">
+      <c r="J65" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="41" customFormat="1">
+      <c r="A66" s="41">
         <v>65</v>
       </c>
-      <c r="B66" s="52">
+      <c r="B66" s="46">
         <v>10</v>
       </c>
-      <c r="C66" s="52">
-        <v>1</v>
-      </c>
-      <c r="D66" s="53" t="s">
+      <c r="C66" s="46">
+        <v>1</v>
+      </c>
+      <c r="D66" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="49" t="s">
+      <c r="E66" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="52" t="s">
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="J66" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="47" customFormat="1">
-      <c r="A67" s="47">
+      <c r="J66" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="41" customFormat="1">
+      <c r="A67" s="41">
         <v>66</v>
       </c>
-      <c r="B67" s="52">
+      <c r="B67" s="46">
         <v>10</v>
       </c>
-      <c r="C67" s="52">
+      <c r="C67" s="46">
         <v>2</v>
       </c>
-      <c r="D67" s="53" t="s">
+      <c r="D67" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="49" t="s">
+      <c r="E67" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="52" t="s">
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="J67" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="47" customFormat="1">
-      <c r="A68" s="47">
+      <c r="J67" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="41" customFormat="1">
+      <c r="A68" s="41">
         <v>67</v>
       </c>
-      <c r="B68" s="52">
+      <c r="B68" s="46">
         <v>10</v>
       </c>
-      <c r="C68" s="52">
+      <c r="C68" s="46">
         <v>3</v>
       </c>
-      <c r="D68" s="53" t="s">
+      <c r="D68" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="49" t="s">
+      <c r="E68" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="52" t="s">
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J68" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="47" customFormat="1">
-      <c r="A69" s="47">
+      <c r="J68" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="41" customFormat="1">
+      <c r="A69" s="41">
         <v>68</v>
       </c>
-      <c r="B69" s="52">
+      <c r="B69" s="46">
         <v>10</v>
       </c>
-      <c r="C69" s="52">
+      <c r="C69" s="46">
         <v>4</v>
       </c>
-      <c r="D69" s="53" t="s">
+      <c r="D69" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="52"/>
-      <c r="F69" s="54" t="s">
+      <c r="E69" s="46"/>
+      <c r="F69" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="54" t="s">
+      <c r="G69" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="H69" s="52" t="s">
+      <c r="H69" s="46" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="47" customFormat="1">
-      <c r="A70" s="47">
+    <row r="70" spans="1:10" s="41" customFormat="1">
+      <c r="A70" s="41">
         <v>69</v>
       </c>
-      <c r="B70" s="52">
+      <c r="B70" s="46">
         <v>10</v>
       </c>
-      <c r="C70" s="52">
+      <c r="C70" s="46">
         <v>5</v>
       </c>
-      <c r="D70" s="53" t="s">
+      <c r="D70" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="52"/>
-      <c r="F70" s="54" t="s">
+      <c r="E70" s="46"/>
+      <c r="F70" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="54" t="s">
+      <c r="G70" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="48" t="s">
+      <c r="H70" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="J70" s="47">
+      <c r="J70" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="47" customFormat="1">
-      <c r="A71" s="47">
+    <row r="71" spans="1:10" s="41" customFormat="1">
+      <c r="A71" s="41">
         <v>70</v>
       </c>
-      <c r="B71" s="52">
+      <c r="B71" s="46">
         <v>10</v>
       </c>
-      <c r="C71" s="52">
+      <c r="C71" s="46">
         <v>6</v>
       </c>
-      <c r="D71" s="53" t="s">
+      <c r="D71" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="52"/>
-      <c r="F71" s="54" t="s">
+      <c r="E71" s="46"/>
+      <c r="F71" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="54" t="s">
+      <c r="G71" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="48" t="s">
+      <c r="H71" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="J71" s="47">
+      <c r="J71" s="41">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="47" customFormat="1">
-      <c r="A72" s="47">
+    <row r="72" spans="1:10" s="41" customFormat="1">
+      <c r="A72" s="41">
         <v>71</v>
       </c>
-      <c r="B72" s="52">
+      <c r="B72" s="46">
         <v>10</v>
       </c>
-      <c r="C72" s="52">
+      <c r="C72" s="46">
         <v>7</v>
       </c>
-      <c r="D72" s="53" t="s">
+      <c r="D72" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="52"/>
-      <c r="F72" s="54" t="s">
+      <c r="E72" s="46"/>
+      <c r="F72" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="54" t="s">
+      <c r="G72" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="48" t="s">
+      <c r="H72" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="J72" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="47" customFormat="1">
-      <c r="A73" s="47">
+      <c r="J72" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="41" customFormat="1">
+      <c r="A73" s="41">
         <v>72</v>
       </c>
-      <c r="B73" s="52">
+      <c r="B73" s="46">
         <v>10</v>
       </c>
-      <c r="C73" s="52">
+      <c r="C73" s="46">
         <v>8</v>
       </c>
-      <c r="D73" s="53" t="s">
+      <c r="D73" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="52"/>
-      <c r="F73" s="54" t="s">
+      <c r="E73" s="46"/>
+      <c r="F73" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="54" t="s">
+      <c r="G73" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H73" s="52" t="s">
+      <c r="H73" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="J73" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="55" customFormat="1">
-      <c r="A74" s="55">
+      <c r="J73" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="49" customFormat="1">
+      <c r="A74" s="49">
         <v>73</v>
       </c>
-      <c r="B74" s="60">
+      <c r="B74" s="51">
         <v>11</v>
       </c>
-      <c r="C74" s="60">
-        <v>1</v>
-      </c>
-      <c r="D74" s="50" t="s">
+      <c r="C74" s="51">
+        <v>1</v>
+      </c>
+      <c r="D74" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="60" t="s">
+      <c r="E74" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="60" t="s">
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="J74" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="55" customFormat="1">
-      <c r="A75" s="55">
+      <c r="J74" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="49" customFormat="1">
+      <c r="A75" s="49">
         <v>74</v>
       </c>
-      <c r="B75" s="60">
+      <c r="B75" s="51">
         <v>11</v>
       </c>
-      <c r="C75" s="60">
+      <c r="C75" s="51">
         <v>2</v>
       </c>
-      <c r="D75" s="50" t="s">
+      <c r="D75" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E75" s="60" t="s">
+      <c r="E75" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="60" t="s">
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="55" customFormat="1">
-      <c r="A76" s="55">
+      <c r="J75" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="49" customFormat="1">
+      <c r="A76" s="49">
         <v>75</v>
       </c>
-      <c r="B76" s="60">
+      <c r="B76" s="51">
         <v>11</v>
       </c>
-      <c r="C76" s="60">
+      <c r="C76" s="51">
         <v>3</v>
       </c>
-      <c r="D76" s="50" t="s">
+      <c r="D76" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="60" t="s">
+      <c r="E76" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="60" t="s">
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="J76" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="55" customFormat="1">
-      <c r="A77" s="55">
+      <c r="J76" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="49" customFormat="1">
+      <c r="A77" s="49">
         <v>76</v>
       </c>
-      <c r="B77" s="60">
+      <c r="B77" s="51">
         <v>11</v>
       </c>
-      <c r="C77" s="60">
+      <c r="C77" s="51">
         <v>4</v>
       </c>
-      <c r="D77" s="50" t="s">
+      <c r="D77" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="60"/>
-      <c r="F77" s="61" t="s">
+      <c r="E77" s="51"/>
+      <c r="F77" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G77" s="61" t="s">
+      <c r="G77" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="H77" s="60" t="s">
+      <c r="H77" s="51" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="55" customFormat="1">
-      <c r="A78" s="55">
+    <row r="78" spans="1:10" s="49" customFormat="1">
+      <c r="A78" s="49">
         <v>77</v>
       </c>
-      <c r="B78" s="60">
+      <c r="B78" s="51">
         <v>11</v>
       </c>
-      <c r="C78" s="60">
+      <c r="C78" s="51">
         <v>5</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D78" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E78" s="60"/>
-      <c r="F78" s="61" t="s">
+      <c r="E78" s="51"/>
+      <c r="F78" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="61" t="s">
+      <c r="G78" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="56" t="s">
+      <c r="H78" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="J78" s="55">
+      <c r="J78" s="49">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="55" customFormat="1">
-      <c r="A79" s="55">
+    <row r="79" spans="1:10" s="49" customFormat="1">
+      <c r="A79" s="49">
         <v>78</v>
       </c>
-      <c r="B79" s="60">
+      <c r="B79" s="51">
         <v>11</v>
       </c>
-      <c r="C79" s="60">
+      <c r="C79" s="51">
         <v>6</v>
       </c>
-      <c r="D79" s="50" t="s">
+      <c r="D79" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E79" s="60"/>
-      <c r="F79" s="61" t="s">
+      <c r="E79" s="51"/>
+      <c r="F79" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="61" t="s">
+      <c r="G79" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="H79" s="56" t="s">
+      <c r="H79" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="55">
+      <c r="J79" s="49">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="55" customFormat="1">
-      <c r="A80" s="55">
+    <row r="80" spans="1:10" s="49" customFormat="1">
+      <c r="A80" s="49">
         <v>79</v>
       </c>
-      <c r="B80" s="60">
+      <c r="B80" s="51">
         <v>11</v>
       </c>
-      <c r="C80" s="60">
+      <c r="C80" s="51">
         <v>7</v>
       </c>
-      <c r="D80" s="50" t="s">
+      <c r="D80" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="60"/>
-      <c r="F80" s="61" t="s">
+      <c r="E80" s="51"/>
+      <c r="F80" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="61" t="s">
+      <c r="G80" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="56" t="s">
+      <c r="H80" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="J80" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="55" customFormat="1">
-      <c r="A81" s="55">
+      <c r="J80" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="49" customFormat="1">
+      <c r="A81" s="49">
         <v>80</v>
       </c>
-      <c r="B81" s="60">
+      <c r="B81" s="51">
         <v>11</v>
       </c>
-      <c r="C81" s="60">
+      <c r="C81" s="51">
         <v>8</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="60"/>
-      <c r="F81" s="61" t="s">
+      <c r="E81" s="51"/>
+      <c r="F81" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="61" t="s">
+      <c r="G81" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="60" t="s">
+      <c r="H81" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="J81" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="55" customFormat="1">
-      <c r="A82" s="62">
+      <c r="J81" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="49" customFormat="1">
+      <c r="A82" s="53">
         <v>81</v>
       </c>
-      <c r="B82" s="63">
+      <c r="B82" s="54">
         <v>12</v>
       </c>
-      <c r="C82" s="63">
-        <v>1</v>
-      </c>
-      <c r="D82" s="64" t="s">
+      <c r="C82" s="54">
+        <v>1</v>
+      </c>
+      <c r="D82" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="63" t="s">
+      <c r="E82" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="63" t="s">
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="I82" s="62"/>
-      <c r="J82" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="55" customFormat="1">
-      <c r="A83" s="62">
+      <c r="I82" s="53"/>
+      <c r="J82" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="49" customFormat="1">
+      <c r="A83" s="53">
         <v>82</v>
       </c>
-      <c r="B83" s="63">
+      <c r="B83" s="54">
         <v>12</v>
       </c>
-      <c r="C83" s="63">
+      <c r="C83" s="54">
         <v>2</v>
       </c>
-      <c r="D83" s="64" t="s">
+      <c r="D83" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="63" t="s">
+      <c r="E83" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="63" t="s">
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="55" customFormat="1">
-      <c r="A84" s="62">
+      <c r="I83" s="53"/>
+      <c r="J83" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="49" customFormat="1">
+      <c r="A84" s="53">
         <v>83</v>
       </c>
-      <c r="B84" s="63">
+      <c r="B84" s="54">
         <v>12</v>
       </c>
-      <c r="C84" s="63">
+      <c r="C84" s="54">
         <v>3</v>
       </c>
-      <c r="D84" s="64" t="s">
+      <c r="D84" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="63" t="s">
+      <c r="E84" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="63" t="s">
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I84" s="62"/>
-      <c r="J84" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="55" customFormat="1">
-      <c r="A85" s="62">
+      <c r="I84" s="53"/>
+      <c r="J84" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="49" customFormat="1">
+      <c r="A85" s="53">
         <v>84</v>
       </c>
-      <c r="B85" s="63">
+      <c r="B85" s="54">
         <v>12</v>
       </c>
-      <c r="C85" s="63">
+      <c r="C85" s="54">
         <v>4</v>
       </c>
-      <c r="D85" s="64" t="s">
+      <c r="D85" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="63"/>
-      <c r="F85" s="65" t="s">
+      <c r="E85" s="54"/>
+      <c r="F85" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G85" s="65" t="s">
+      <c r="G85" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="H85" s="63" t="s">
+      <c r="H85" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="I85" s="62"/>
-      <c r="J85" s="62"/>
-    </row>
-    <row r="86" spans="1:10" s="55" customFormat="1">
-      <c r="A86" s="62">
+      <c r="I85" s="53"/>
+      <c r="J85" s="53"/>
+    </row>
+    <row r="86" spans="1:10" s="49" customFormat="1">
+      <c r="A86" s="53">
         <v>85</v>
       </c>
-      <c r="B86" s="63">
+      <c r="B86" s="54">
         <v>12</v>
       </c>
-      <c r="C86" s="63">
+      <c r="C86" s="54">
         <v>5</v>
       </c>
-      <c r="D86" s="64" t="s">
+      <c r="D86" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="63"/>
-      <c r="F86" s="65" t="s">
+      <c r="E86" s="54"/>
+      <c r="F86" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="65" t="s">
+      <c r="G86" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="66" t="s">
+      <c r="H86" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="I86" s="62"/>
-      <c r="J86" s="62">
+      <c r="I86" s="53"/>
+      <c r="J86" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="55" customFormat="1">
-      <c r="A87" s="62">
+    <row r="87" spans="1:10" s="49" customFormat="1">
+      <c r="A87" s="53">
         <v>86</v>
       </c>
-      <c r="B87" s="63">
+      <c r="B87" s="54">
         <v>12</v>
       </c>
-      <c r="C87" s="63">
+      <c r="C87" s="54">
         <v>6</v>
       </c>
-      <c r="D87" s="64" t="s">
+      <c r="D87" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E87" s="63"/>
-      <c r="F87" s="65" t="s">
+      <c r="E87" s="54"/>
+      <c r="F87" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="65" t="s">
+      <c r="G87" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="H87" s="66" t="s">
+      <c r="H87" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="I87" s="62"/>
-      <c r="J87" s="62">
+      <c r="I87" s="53"/>
+      <c r="J87" s="53">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="55" customFormat="1">
-      <c r="A88" s="62">
+    <row r="88" spans="1:10" s="49" customFormat="1">
+      <c r="A88" s="53">
         <v>87</v>
       </c>
-      <c r="B88" s="63">
+      <c r="B88" s="54">
         <v>12</v>
       </c>
-      <c r="C88" s="63">
+      <c r="C88" s="54">
         <v>7</v>
       </c>
-      <c r="D88" s="64" t="s">
+      <c r="D88" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="63"/>
-      <c r="F88" s="65" t="s">
+      <c r="E88" s="54"/>
+      <c r="F88" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="65" t="s">
+      <c r="G88" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="66" t="s">
+      <c r="H88" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="I88" s="62"/>
-      <c r="J88" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="55" customFormat="1">
-      <c r="A89" s="62">
+      <c r="I88" s="53"/>
+      <c r="J88" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="49" customFormat="1">
+      <c r="A89" s="53">
         <v>88</v>
       </c>
-      <c r="B89" s="63">
+      <c r="B89" s="54">
         <v>12</v>
       </c>
-      <c r="C89" s="63">
+      <c r="C89" s="54">
         <v>8</v>
       </c>
-      <c r="D89" s="64" t="s">
+      <c r="D89" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="63"/>
-      <c r="F89" s="65" t="s">
+      <c r="E89" s="54"/>
+      <c r="F89" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="65" t="s">
+      <c r="G89" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="63" t="s">
+      <c r="H89" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="I89" s="62"/>
-      <c r="J89" s="62">
+      <c r="I89" s="53"/>
+      <c r="J89" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="8" customFormat="1">
-      <c r="A90" s="62">
+      <c r="A90" s="53">
         <v>89</v>
       </c>
-      <c r="B90" s="60">
+      <c r="B90" s="51">
         <v>13</v>
       </c>
-      <c r="C90" s="60">
-        <v>1</v>
-      </c>
-      <c r="D90" s="50" t="s">
+      <c r="C90" s="51">
+        <v>1</v>
+      </c>
+      <c r="D90" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E90" s="60" t="s">
+      <c r="E90" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="61"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="60" t="s">
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="I90" s="55"/>
-      <c r="J90" s="55">
+      <c r="I90" s="49"/>
+      <c r="J90" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="8" customFormat="1">
-      <c r="A91" s="62">
+      <c r="A91" s="53">
         <v>90</v>
       </c>
-      <c r="B91" s="60">
+      <c r="B91" s="51">
         <v>13</v>
       </c>
-      <c r="C91" s="60">
+      <c r="C91" s="51">
         <v>2</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E91" s="60" t="s">
+      <c r="E91" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="60" t="s">
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55">
+      <c r="I91" s="49"/>
+      <c r="J91" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="8" customFormat="1">
-      <c r="A92" s="62">
+      <c r="A92" s="53">
         <v>91</v>
       </c>
-      <c r="B92" s="60">
+      <c r="B92" s="51">
         <v>13</v>
       </c>
-      <c r="C92" s="60">
+      <c r="C92" s="51">
         <v>3</v>
       </c>
-      <c r="D92" s="50" t="s">
+      <c r="D92" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="60" t="s">
+      <c r="E92" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="60" t="s">
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I92" s="55"/>
-      <c r="J92" s="55">
+      <c r="I92" s="49"/>
+      <c r="J92" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="8" customFormat="1">
-      <c r="A93" s="62">
+      <c r="A93" s="53">
         <v>92</v>
       </c>
-      <c r="B93" s="60">
+      <c r="B93" s="51">
         <v>13</v>
       </c>
-      <c r="C93" s="60">
+      <c r="C93" s="51">
         <v>4</v>
       </c>
-      <c r="D93" s="50" t="s">
+      <c r="D93" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E93" s="60"/>
-      <c r="F93" s="61" t="s">
+      <c r="E93" s="51"/>
+      <c r="F93" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G93" s="61" t="s">
+      <c r="G93" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="H93" s="60" t="s">
+      <c r="H93" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="I93" s="55"/>
-      <c r="J93" s="55"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
     </row>
     <row r="94" spans="1:10" s="8" customFormat="1">
-      <c r="A94" s="62">
+      <c r="A94" s="53">
         <v>93</v>
       </c>
-      <c r="B94" s="60">
+      <c r="B94" s="51">
         <v>13</v>
       </c>
-      <c r="C94" s="60">
+      <c r="C94" s="51">
         <v>5</v>
       </c>
-      <c r="D94" s="50" t="s">
+      <c r="D94" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E94" s="60"/>
-      <c r="F94" s="61" t="s">
+      <c r="E94" s="51"/>
+      <c r="F94" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G94" s="61" t="s">
+      <c r="G94" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="56" t="s">
+      <c r="H94" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="I94" s="55"/>
-      <c r="J94" s="55">
+      <c r="I94" s="49"/>
+      <c r="J94" s="49">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="8" customFormat="1">
-      <c r="A95" s="62">
+      <c r="A95" s="53">
         <v>94</v>
       </c>
-      <c r="B95" s="60">
+      <c r="B95" s="51">
         <v>13</v>
       </c>
-      <c r="C95" s="60">
+      <c r="C95" s="51">
         <v>6</v>
       </c>
-      <c r="D95" s="50" t="s">
+      <c r="D95" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E95" s="60"/>
-      <c r="F95" s="61" t="s">
+      <c r="E95" s="51"/>
+      <c r="F95" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G95" s="61" t="s">
+      <c r="G95" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="H95" s="56" t="s">
+      <c r="H95" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="I95" s="55"/>
-      <c r="J95" s="55">
+      <c r="I95" s="49"/>
+      <c r="J95" s="49">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="8" customFormat="1">
-      <c r="A96" s="62">
+      <c r="A96" s="53">
         <v>95</v>
       </c>
-      <c r="B96" s="60">
+      <c r="B96" s="51">
         <v>13</v>
       </c>
-      <c r="C96" s="60">
+      <c r="C96" s="51">
         <v>7</v>
       </c>
-      <c r="D96" s="50" t="s">
+      <c r="D96" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="60"/>
-      <c r="F96" s="61" t="s">
+      <c r="E96" s="51"/>
+      <c r="F96" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G96" s="61" t="s">
+      <c r="G96" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H96" s="56" t="s">
+      <c r="H96" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="I96" s="55"/>
-      <c r="J96" s="55">
+      <c r="I96" s="49"/>
+      <c r="J96" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="8" customFormat="1">
-      <c r="A97" s="62">
+      <c r="A97" s="53">
         <v>96</v>
       </c>
-      <c r="B97" s="60">
+      <c r="B97" s="51">
         <v>13</v>
       </c>
-      <c r="C97" s="60">
+      <c r="C97" s="51">
         <v>8</v>
       </c>
-      <c r="D97" s="50" t="s">
+      <c r="D97" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="60"/>
-      <c r="F97" s="61" t="s">
+      <c r="E97" s="51"/>
+      <c r="F97" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G97" s="61" t="s">
+      <c r="G97" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="H97" s="60" t="s">
+      <c r="H97" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="I97" s="55"/>
-      <c r="J97" s="55">
+      <c r="I97" s="49"/>
+      <c r="J97" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="8" customFormat="1">
-      <c r="A98" s="62">
+      <c r="A98" s="53">
         <v>97</v>
       </c>
-      <c r="B98" s="63">
+      <c r="B98" s="54">
         <v>14</v>
       </c>
-      <c r="C98" s="63">
-        <v>1</v>
-      </c>
-      <c r="D98" s="64" t="s">
+      <c r="C98" s="54">
+        <v>1</v>
+      </c>
+      <c r="D98" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E98" s="60" t="s">
+      <c r="E98" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="63" t="s">
+      <c r="F98" s="56"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="I98" s="62"/>
-      <c r="J98" s="62">
+      <c r="I98" s="53"/>
+      <c r="J98" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="8" customFormat="1">
-      <c r="A99" s="62">
+      <c r="A99" s="53">
         <v>98</v>
       </c>
-      <c r="B99" s="63">
+      <c r="B99" s="54">
         <v>14</v>
       </c>
-      <c r="C99" s="63">
+      <c r="C99" s="54">
         <v>2</v>
       </c>
-      <c r="D99" s="64" t="s">
+      <c r="D99" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E99" s="60" t="s">
+      <c r="E99" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="F99" s="65"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="63" t="s">
+      <c r="F99" s="56"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="I99" s="62"/>
-      <c r="J99" s="62">
+      <c r="I99" s="53"/>
+      <c r="J99" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="8" customFormat="1">
-      <c r="A100" s="62">
+      <c r="A100" s="53">
         <v>99</v>
       </c>
-      <c r="B100" s="63">
+      <c r="B100" s="54">
         <v>14</v>
       </c>
-      <c r="C100" s="63">
+      <c r="C100" s="54">
         <v>3</v>
       </c>
-      <c r="D100" s="64" t="s">
+      <c r="D100" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E100" s="60" t="s">
+      <c r="E100" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="63" t="s">
+      <c r="F100" s="56"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I100" s="62"/>
-      <c r="J100" s="62">
+      <c r="I100" s="53"/>
+      <c r="J100" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="8" customFormat="1">
-      <c r="A101" s="62">
+      <c r="A101" s="53">
         <v>100</v>
       </c>
-      <c r="B101" s="63">
+      <c r="B101" s="54">
         <v>14</v>
       </c>
-      <c r="C101" s="63">
+      <c r="C101" s="54">
         <v>4</v>
       </c>
-      <c r="D101" s="64" t="s">
+      <c r="D101" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="63"/>
-      <c r="F101" s="65" t="s">
+      <c r="E101" s="54"/>
+      <c r="F101" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="65" t="s">
+      <c r="G101" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="H101" s="63" t="s">
+      <c r="H101" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="I101" s="62"/>
-      <c r="J101" s="62"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="53"/>
     </row>
     <row r="102" spans="1:10" s="8" customFormat="1">
-      <c r="A102" s="62">
+      <c r="A102" s="53">
         <v>101</v>
       </c>
-      <c r="B102" s="63">
+      <c r="B102" s="54">
         <v>14</v>
       </c>
-      <c r="C102" s="63">
+      <c r="C102" s="54">
         <v>5</v>
       </c>
-      <c r="D102" s="64" t="s">
+      <c r="D102" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E102" s="63"/>
-      <c r="F102" s="65" t="s">
+      <c r="E102" s="54"/>
+      <c r="F102" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="65" t="s">
+      <c r="G102" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="66" t="s">
+      <c r="H102" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="I102" s="62"/>
-      <c r="J102" s="62">
+      <c r="I102" s="53"/>
+      <c r="J102" s="53">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="8" customFormat="1">
-      <c r="A103" s="62">
+      <c r="A103" s="53">
         <v>102</v>
       </c>
-      <c r="B103" s="63">
+      <c r="B103" s="54">
         <v>14</v>
       </c>
-      <c r="C103" s="63">
+      <c r="C103" s="54">
         <v>6</v>
       </c>
-      <c r="D103" s="64" t="s">
+      <c r="D103" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E103" s="63"/>
-      <c r="F103" s="65" t="s">
+      <c r="E103" s="54"/>
+      <c r="F103" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="65" t="s">
+      <c r="G103" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="H103" s="66" t="s">
+      <c r="H103" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="I103" s="62"/>
-      <c r="J103" s="62">
+      <c r="I103" s="53"/>
+      <c r="J103" s="53">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="8" customFormat="1">
-      <c r="A104" s="62">
+      <c r="A104" s="53">
         <v>103</v>
       </c>
-      <c r="B104" s="63">
+      <c r="B104" s="54">
         <v>14</v>
       </c>
-      <c r="C104" s="63">
+      <c r="C104" s="54">
         <v>7</v>
       </c>
-      <c r="D104" s="64" t="s">
+      <c r="D104" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E104" s="63"/>
-      <c r="F104" s="65" t="s">
+      <c r="E104" s="54"/>
+      <c r="F104" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G104" s="65" t="s">
+      <c r="G104" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="H104" s="66" t="s">
+      <c r="H104" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="I104" s="62"/>
-      <c r="J104" s="62">
+      <c r="I104" s="53"/>
+      <c r="J104" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="8" customFormat="1">
-      <c r="A105" s="62">
+      <c r="A105" s="53">
         <v>104</v>
       </c>
-      <c r="B105" s="63">
+      <c r="B105" s="54">
         <v>14</v>
       </c>
-      <c r="C105" s="63">
+      <c r="C105" s="54">
         <v>8</v>
       </c>
-      <c r="D105" s="64" t="s">
+      <c r="D105" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E105" s="63"/>
-      <c r="F105" s="65" t="s">
+      <c r="E105" s="54"/>
+      <c r="F105" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G105" s="65" t="s">
+      <c r="G105" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H105" s="63" t="s">
+      <c r="H105" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="I105" s="62"/>
-      <c r="J105" s="62">
+      <c r="I105" s="53"/>
+      <c r="J105" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="8" customFormat="1">
-      <c r="A106" s="62">
+      <c r="A106" s="53">
         <v>105</v>
       </c>
-      <c r="B106" s="60">
+      <c r="B106" s="51">
         <v>15</v>
       </c>
-      <c r="C106" s="60">
-        <v>1</v>
-      </c>
-      <c r="D106" s="50" t="s">
+      <c r="C106" s="51">
+        <v>1</v>
+      </c>
+      <c r="D106" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E106" s="60" t="s">
+      <c r="E106" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="F106" s="61"/>
-      <c r="G106" s="61"/>
-      <c r="H106" s="60" t="s">
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="I106" s="55"/>
-      <c r="J106" s="55">
+      <c r="I106" s="49"/>
+      <c r="J106" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="8" customFormat="1">
-      <c r="A107" s="62">
+      <c r="A107" s="53">
         <v>106</v>
       </c>
-      <c r="B107" s="60">
+      <c r="B107" s="51">
         <v>15</v>
       </c>
-      <c r="C107" s="60">
+      <c r="C107" s="51">
         <v>2</v>
       </c>
-      <c r="D107" s="50" t="s">
+      <c r="D107" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E107" s="60" t="s">
+      <c r="E107" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="F107" s="61"/>
-      <c r="G107" s="61"/>
-      <c r="H107" s="60" t="s">
+      <c r="F107" s="52"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="I107" s="55"/>
-      <c r="J107" s="55">
+      <c r="I107" s="49"/>
+      <c r="J107" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="8" customFormat="1">
-      <c r="A108" s="62">
+      <c r="A108" s="53">
         <v>107</v>
       </c>
-      <c r="B108" s="60">
+      <c r="B108" s="51">
         <v>15</v>
       </c>
-      <c r="C108" s="60">
+      <c r="C108" s="51">
         <v>3</v>
       </c>
-      <c r="D108" s="50" t="s">
+      <c r="D108" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E108" s="60" t="s">
+      <c r="E108" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="F108" s="61"/>
-      <c r="G108" s="61"/>
-      <c r="H108" s="60" t="s">
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I108" s="55"/>
-      <c r="J108" s="55">
+      <c r="I108" s="49"/>
+      <c r="J108" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="8" customFormat="1">
-      <c r="A109" s="62">
+      <c r="A109" s="53">
         <v>108</v>
       </c>
-      <c r="B109" s="60">
+      <c r="B109" s="51">
         <v>15</v>
       </c>
-      <c r="C109" s="60">
+      <c r="C109" s="51">
         <v>4</v>
       </c>
-      <c r="D109" s="50" t="s">
+      <c r="D109" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E109" s="60"/>
-      <c r="F109" s="61" t="s">
+      <c r="E109" s="51"/>
+      <c r="F109" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G109" s="61" t="s">
+      <c r="G109" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="H109" s="60" t="s">
+      <c r="H109" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="I109" s="55"/>
-      <c r="J109" s="55"/>
+      <c r="I109" s="49"/>
+      <c r="J109" s="49"/>
     </row>
     <row r="110" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A110" s="62">
+      <c r="A110" s="53">
         <v>109</v>
       </c>
-      <c r="B110" s="60">
+      <c r="B110" s="51">
         <v>15</v>
       </c>
-      <c r="C110" s="60">
+      <c r="C110" s="51">
         <v>5</v>
       </c>
-      <c r="D110" s="50" t="s">
+      <c r="D110" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E110" s="60"/>
-      <c r="F110" s="74" t="s">
+      <c r="E110" s="51"/>
+      <c r="F110" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="G110" s="61">
-        <v>1</v>
-      </c>
-      <c r="H110" s="56" t="s">
+      <c r="G110" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="H110" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="I110" s="55"/>
-      <c r="J110" s="55">
+      <c r="I110" s="49"/>
+      <c r="J110" s="49">
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A111" s="62">
+      <c r="A111" s="53">
         <v>110</v>
       </c>
-      <c r="B111" s="60">
+      <c r="B111" s="51">
         <v>15</v>
       </c>
-      <c r="C111" s="60">
+      <c r="C111" s="51">
         <v>6</v>
       </c>
-      <c r="D111" s="50" t="s">
+      <c r="D111" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E111" s="60"/>
-      <c r="F111" s="74" t="s">
+      <c r="E111" s="51"/>
+      <c r="F111" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="G111" s="61">
-        <v>1</v>
-      </c>
-      <c r="H111" s="56" t="s">
+      <c r="G111" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="H111" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="I111" s="55"/>
-      <c r="J111" s="55">
+      <c r="I111" s="49"/>
+      <c r="J111" s="49">
         <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="8" customFormat="1">
-      <c r="A112" s="62">
+      <c r="A112" s="53">
         <v>111</v>
       </c>
-      <c r="B112" s="60">
+      <c r="B112" s="51">
         <v>15</v>
       </c>
-      <c r="C112" s="60">
+      <c r="C112" s="51">
         <v>7</v>
       </c>
-      <c r="D112" s="50" t="s">
+      <c r="D112" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E112" s="60"/>
-      <c r="F112" s="61" t="s">
+      <c r="E112" s="51"/>
+      <c r="F112" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G112" s="61" t="s">
+      <c r="G112" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H112" s="56" t="s">
+      <c r="H112" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="I112" s="55"/>
-      <c r="J112" s="55">
+      <c r="I112" s="49"/>
+      <c r="J112" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A113" s="62">
+      <c r="A113" s="53">
         <v>112</v>
       </c>
-      <c r="B113" s="60">
+      <c r="B113" s="51">
         <v>15</v>
       </c>
-      <c r="C113" s="60">
+      <c r="C113" s="51">
         <v>8</v>
       </c>
-      <c r="D113" s="50" t="s">
+      <c r="D113" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E113" s="60"/>
-      <c r="F113" s="74" t="s">
+      <c r="E113" s="51"/>
+      <c r="F113" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="G113" s="61">
-        <v>1</v>
-      </c>
-      <c r="H113" s="60" t="s">
+      <c r="G113" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="H113" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="I113" s="55"/>
-      <c r="J113" s="55">
+      <c r="I113" s="49"/>
+      <c r="J113" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="8" customFormat="1">
-      <c r="A114" s="62">
+      <c r="A114" s="53">
         <v>113</v>
       </c>
-      <c r="B114" s="63">
+      <c r="B114" s="54">
         <v>16</v>
       </c>
-      <c r="C114" s="63">
-        <v>1</v>
-      </c>
-      <c r="D114" s="64" t="s">
+      <c r="C114" s="54">
+        <v>1</v>
+      </c>
+      <c r="D114" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E114" s="60" t="s">
+      <c r="E114" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="F114" s="65"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="63" t="s">
+      <c r="F114" s="56"/>
+      <c r="G114" s="56"/>
+      <c r="H114" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="I114" s="62"/>
-      <c r="J114" s="62">
+      <c r="I114" s="53"/>
+      <c r="J114" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="8" customFormat="1">
-      <c r="A115" s="62">
+      <c r="A115" s="53">
         <v>114</v>
       </c>
-      <c r="B115" s="63">
+      <c r="B115" s="54">
         <v>16</v>
       </c>
-      <c r="C115" s="63">
+      <c r="C115" s="54">
         <v>2</v>
       </c>
-      <c r="D115" s="64" t="s">
+      <c r="D115" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E115" s="60" t="s">
+      <c r="E115" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="63" t="s">
+      <c r="F115" s="56"/>
+      <c r="G115" s="56"/>
+      <c r="H115" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="I115" s="62"/>
-      <c r="J115" s="62">
+      <c r="I115" s="53"/>
+      <c r="J115" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="8" customFormat="1">
-      <c r="A116" s="62">
+      <c r="A116" s="53">
         <v>115</v>
       </c>
-      <c r="B116" s="63">
+      <c r="B116" s="54">
         <v>16</v>
       </c>
-      <c r="C116" s="63">
+      <c r="C116" s="54">
         <v>3</v>
       </c>
-      <c r="D116" s="64" t="s">
+      <c r="D116" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E116" s="60" t="s">
+      <c r="E116" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="63" t="s">
+      <c r="F116" s="56"/>
+      <c r="G116" s="56"/>
+      <c r="H116" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I116" s="62"/>
-      <c r="J116" s="62">
+      <c r="I116" s="53"/>
+      <c r="J116" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="8" customFormat="1">
-      <c r="A117" s="62">
+      <c r="A117" s="53">
         <v>116</v>
       </c>
-      <c r="B117" s="63">
+      <c r="B117" s="54">
         <v>16</v>
       </c>
-      <c r="C117" s="63">
+      <c r="C117" s="54">
         <v>4</v>
       </c>
-      <c r="D117" s="64" t="s">
+      <c r="D117" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E117" s="63"/>
-      <c r="F117" s="65" t="s">
+      <c r="E117" s="54"/>
+      <c r="F117" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G117" s="65" t="s">
+      <c r="G117" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="H117" s="63" t="s">
+      <c r="H117" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="I117" s="62"/>
-      <c r="J117" s="62"/>
+      <c r="I117" s="53"/>
+      <c r="J117" s="53"/>
     </row>
     <row r="118" spans="1:10" s="8" customFormat="1">
-      <c r="A118" s="62">
+      <c r="A118" s="53">
         <v>117</v>
       </c>
-      <c r="B118" s="63">
+      <c r="B118" s="54">
         <v>16</v>
       </c>
-      <c r="C118" s="63">
+      <c r="C118" s="54">
         <v>5</v>
       </c>
-      <c r="D118" s="64" t="s">
+      <c r="D118" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E118" s="63"/>
-      <c r="F118" s="65" t="s">
+      <c r="E118" s="54"/>
+      <c r="F118" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G118" s="65" t="s">
+      <c r="G118" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="H118" s="66" t="s">
+      <c r="H118" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="I118" s="62"/>
-      <c r="J118" s="62">
+      <c r="I118" s="53"/>
+      <c r="J118" s="53">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="8" customFormat="1">
-      <c r="A119" s="62">
+      <c r="A119" s="53">
         <v>118</v>
       </c>
-      <c r="B119" s="63">
+      <c r="B119" s="54">
         <v>16</v>
       </c>
-      <c r="C119" s="63">
+      <c r="C119" s="54">
         <v>6</v>
       </c>
-      <c r="D119" s="64" t="s">
+      <c r="D119" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E119" s="63"/>
-      <c r="F119" s="56" t="s">
+      <c r="E119" s="54"/>
+      <c r="F119" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="G119" s="65" t="s">
+      <c r="G119" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="H119" s="66" t="s">
+      <c r="H119" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="I119" s="62"/>
-      <c r="J119" s="62">
+      <c r="I119" s="53"/>
+      <c r="J119" s="53">
         <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:10" s="8" customFormat="1">
-      <c r="A120" s="62">
+      <c r="A120" s="53">
         <v>119</v>
       </c>
-      <c r="B120" s="63">
+      <c r="B120" s="54">
         <v>16</v>
       </c>
-      <c r="C120" s="63">
+      <c r="C120" s="54">
         <v>7</v>
       </c>
-      <c r="D120" s="64" t="s">
+      <c r="D120" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E120" s="63"/>
-      <c r="F120" s="65" t="s">
+      <c r="E120" s="54"/>
+      <c r="F120" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G120" s="65" t="s">
+      <c r="G120" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="H120" s="66" t="s">
+      <c r="H120" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="I120" s="62"/>
-      <c r="J120" s="62">
+      <c r="I120" s="53"/>
+      <c r="J120" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10" s="8" customFormat="1">
-      <c r="A121" s="62">
+      <c r="A121" s="53">
         <v>120</v>
       </c>
-      <c r="B121" s="63">
+      <c r="B121" s="54">
         <v>16</v>
       </c>
-      <c r="C121" s="63">
+      <c r="C121" s="54">
         <v>8</v>
       </c>
-      <c r="D121" s="64" t="s">
+      <c r="D121" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E121" s="63"/>
-      <c r="F121" s="56" t="s">
+      <c r="E121" s="54"/>
+      <c r="F121" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="G121" s="65" t="s">
+      <c r="G121" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="H121" s="63" t="s">
+      <c r="H121" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="I121" s="62"/>
-      <c r="J121" s="62">
+      <c r="I121" s="53"/>
+      <c r="J121" s="53">
         <v>1</v>
       </c>
     </row>

--- a/config_1.5/activity_exchange_server.xlsx
+++ b/config_1.5/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="187">
   <si>
     <t>id|</t>
   </si>
@@ -995,86 +995,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>“prop_3d_fish_nuclear_bomb_3”,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>“prop_3d_fish_nuclear_bomb_2”,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>“prop_3d_fish_nuclear_bomb_1”,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>5,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prop_hammer_4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prop_hammer_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3",</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_hlqd_xx",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1087,7 +1011,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1,</t>
+    <t>"prop_3d_fish_nuclear_bomb_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_3d_fish_nuclear_bomb_2",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_3d_fish_nuclear_bomb_1",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hammer_4",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hammer_3",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1174,7 +1114,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1189,37 +1129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,7 +1191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1335,11 +1245,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1348,20 +1254,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -1371,83 +1273,16 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1462,14 +1297,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1750,7 +1596,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
@@ -2009,11 +1855,11 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" s="63" customFormat="1" ht="16.5">
+    <row r="8" spans="1:16" s="34" customFormat="1" ht="16.5">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="33" t="s">
         <v>133</v>
       </c>
       <c r="C8" s="8">
@@ -2024,7 +1870,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="33" t="s">
         <v>137</v>
       </c>
       <c r="H8" s="8">
@@ -2036,17 +1882,17 @@
       <c r="J8" s="17">
         <v>7</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="34">
         <v>0</v>
       </c>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-    </row>
-    <row r="9" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="1:16" s="34" customFormat="1" ht="16.5">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="33" t="s">
         <v>134</v>
       </c>
       <c r="C9" s="8">
@@ -2057,7 +1903,7 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="33" t="s">
         <v>138</v>
       </c>
       <c r="H9" s="8">
@@ -2069,17 +1915,17 @@
       <c r="J9" s="17">
         <v>8</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="34">
         <v>0</v>
       </c>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-    </row>
-    <row r="10" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+    </row>
+    <row r="10" spans="1:16" s="34" customFormat="1" ht="16.5">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="33" t="s">
         <v>142</v>
       </c>
       <c r="C10" s="8">
@@ -2090,7 +1936,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="33" t="s">
         <v>144</v>
       </c>
       <c r="H10" s="8">
@@ -2102,17 +1948,17 @@
       <c r="J10" s="17">
         <v>9</v>
       </c>
-      <c r="K10" s="63">
-        <v>1</v>
-      </c>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-    </row>
-    <row r="11" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="K10" s="34">
+        <v>1</v>
+      </c>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+    </row>
+    <row r="11" spans="1:16" s="34" customFormat="1" ht="16.5">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="33" t="s">
         <v>143</v>
       </c>
       <c r="C11" s="8">
@@ -2123,7 +1969,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="33" t="s">
         <v>144</v>
       </c>
       <c r="H11" s="8">
@@ -2135,28 +1981,28 @@
       <c r="J11" s="17">
         <v>10</v>
       </c>
-      <c r="K11" s="63">
-        <v>1</v>
-      </c>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-    </row>
-    <row r="12" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="K11" s="34">
+        <v>1</v>
+      </c>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+    </row>
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="16.5">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="36">
         <v>1609200000</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="36">
         <v>1609775999</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="33" t="s">
         <v>164</v>
       </c>
       <c r="H12" s="8">
@@ -2168,28 +2014,28 @@
       <c r="J12" s="17">
         <v>11</v>
       </c>
-      <c r="K12" s="63">
-        <v>1</v>
-      </c>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-    </row>
-    <row r="13" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="K12" s="34">
+        <v>1</v>
+      </c>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+    </row>
+    <row r="13" spans="1:16" s="34" customFormat="1" ht="16.5">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="36">
         <v>1609200000</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="36">
         <v>1609775999</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="33" t="s">
         <v>164</v>
       </c>
       <c r="H13" s="8">
@@ -2201,28 +2047,28 @@
       <c r="J13" s="17">
         <v>12</v>
       </c>
-      <c r="K13" s="63">
-        <v>1</v>
-      </c>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-    </row>
-    <row r="14" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="K13" s="34">
+        <v>1</v>
+      </c>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+    </row>
+    <row r="14" spans="1:16" s="34" customFormat="1" ht="16.5">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="36">
         <v>1609200000</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="36">
         <v>1609775999</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="33" t="s">
         <v>164</v>
       </c>
       <c r="H14" s="8">
@@ -2234,28 +2080,28 @@
       <c r="J14" s="17">
         <v>13</v>
       </c>
-      <c r="K14" s="63">
-        <v>1</v>
-      </c>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-    </row>
-    <row r="15" spans="1:16" s="63" customFormat="1" ht="16.5">
+      <c r="K14" s="34">
+        <v>1</v>
+      </c>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="16.5">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="36">
         <v>1609200000</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="36">
         <v>1609775999</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="33" t="s">
         <v>164</v>
       </c>
       <c r="H15" s="8">
@@ -2267,81 +2113,81 @@
       <c r="J15" s="17">
         <v>14</v>
       </c>
-      <c r="K15" s="63">
-        <v>1</v>
-      </c>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-    </row>
-    <row r="16" spans="1:16" s="67" customFormat="1" ht="16.5">
-      <c r="A16" s="53">
+      <c r="K15" s="34">
+        <v>1</v>
+      </c>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" s="38" customFormat="1" ht="16.5">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="37">
         <v>1609804800</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="37">
         <v>1610380799</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="H16" s="53">
-        <v>1</v>
-      </c>
-      <c r="I16" s="53">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="25">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25">
         <v>15</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="25">
         <v>15</v>
       </c>
-      <c r="K16" s="67">
-        <v>1</v>
-      </c>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-    </row>
-    <row r="17" spans="1:16" s="67" customFormat="1" ht="16.5">
-      <c r="A17" s="53">
+      <c r="K16" s="38">
+        <v>1</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="17" spans="1:16" s="38" customFormat="1" ht="16.5">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="37">
         <v>1609804800</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="37">
         <v>1610380799</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="53">
-        <v>1</v>
-      </c>
-      <c r="I17" s="53">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="25">
+        <v>1</v>
+      </c>
+      <c r="I17" s="25">
         <v>16</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="25">
         <v>16</v>
       </c>
-      <c r="K17" s="67">
-        <v>1</v>
-      </c>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
+      <c r="K17" s="38">
+        <v>1</v>
+      </c>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
     </row>
     <row r="18" spans="1:16" customFormat="1">
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
@@ -2598,58 +2444,58 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="38" customFormat="1">
-      <c r="A10" s="38">
+    <row r="10" spans="1:7" s="18" customFormat="1">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="38" customFormat="1">
-      <c r="A11" s="38">
+    <row r="11" spans="1:7" s="18" customFormat="1">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="49" customFormat="1">
-      <c r="A12" s="49">
+    <row r="12" spans="1:7" s="21" customFormat="1">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="49" customFormat="1">
-      <c r="A13" s="49">
+    <row r="13" spans="1:7" s="21" customFormat="1">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="49">
+      <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="22" t="s">
         <v>166</v>
       </c>
       <c r="D14" s="10"/>
@@ -2658,39 +2504,39 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="49">
+      <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="22" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="58" customFormat="1">
-      <c r="A16" s="49">
+    <row r="16" spans="1:7" s="30" customFormat="1">
+      <c r="A16" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-    </row>
-    <row r="17" spans="1:3" s="58" customFormat="1">
-      <c r="A17" s="49">
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:3" s="30" customFormat="1">
+      <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="31" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2706,11 +2552,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G118" sqref="G118"/>
+      <selection pane="bottomRight" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3350,2532 +3196,2505 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="18" customFormat="1">
-      <c r="A26" s="18">
+    <row r="26" spans="1:10" s="8" customFormat="1">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="40">
         <v>5</v>
       </c>
-      <c r="C26" s="19">
-        <v>1</v>
-      </c>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="40">
+        <v>1</v>
+      </c>
+      <c r="D26" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="19" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="18" customFormat="1">
-      <c r="A27" s="18">
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="8" customFormat="1">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="40">
         <v>5</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="40">
         <v>2</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="19" t="s">
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="18" customFormat="1">
-      <c r="A28" s="18">
+      <c r="J27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="8" customFormat="1">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="40">
         <v>5</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="40">
         <v>3</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="19" t="s">
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="18" customFormat="1">
-      <c r="A29" s="18">
+      <c r="J28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="8" customFormat="1">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="40">
         <v>5</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="40">
         <v>4</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="21" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="18" customFormat="1">
-      <c r="A30" s="18">
+    <row r="30" spans="1:10" s="8" customFormat="1">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="40">
         <v>5</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="40">
         <v>5</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="21" t="s">
+      <c r="E30" s="40"/>
+      <c r="F30" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="H30" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="18" customFormat="1">
-      <c r="A31" s="18">
+    <row r="31" spans="1:10" s="8" customFormat="1">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="40">
         <v>5</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="40">
         <v>6</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="21" t="s">
+      <c r="E31" s="40"/>
+      <c r="F31" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="18" customFormat="1">
-      <c r="A32" s="18">
+    <row r="32" spans="1:10" s="8" customFormat="1">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="40">
         <v>5</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="40">
         <v>7</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="21" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="18" customFormat="1">
-      <c r="A33" s="18">
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="8" customFormat="1">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="40">
         <v>5</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="40">
         <v>8</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="21" t="s">
+      <c r="E33" s="40"/>
+      <c r="F33" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="23" customFormat="1">
-      <c r="A34" s="18">
+      <c r="J33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="8" customFormat="1">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="40">
         <v>6</v>
       </c>
-      <c r="C34" s="24">
-        <v>1</v>
-      </c>
-      <c r="D34" s="25" t="s">
+      <c r="C34" s="40">
+        <v>1</v>
+      </c>
+      <c r="D34" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="24" t="s">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="23" customFormat="1">
-      <c r="A35" s="18">
+      <c r="J34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="8" customFormat="1">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="40">
         <v>6</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="40">
         <v>2</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="24" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="23" customFormat="1">
-      <c r="A36" s="18">
+      <c r="J35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="8" customFormat="1">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="40">
         <v>6</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="40">
         <v>3</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="24" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="23" customFormat="1">
-      <c r="A37" s="18">
+      <c r="J36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="8" customFormat="1">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="40">
         <v>6</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="40">
         <v>4</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="26" t="s">
+      <c r="E37" s="40"/>
+      <c r="F37" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="23" customFormat="1">
-      <c r="A38" s="18">
+    <row r="38" spans="1:10" s="8" customFormat="1">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="40">
         <v>6</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="40">
         <v>5</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="26" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="23" customFormat="1">
-      <c r="A39" s="18">
+    <row r="39" spans="1:10" s="8" customFormat="1">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="40">
         <v>6</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="40">
         <v>6</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="26" t="s">
+      <c r="E39" s="40"/>
+      <c r="F39" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="23" customFormat="1">
-      <c r="A40" s="18">
+    <row r="40" spans="1:10" s="8" customFormat="1">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="40">
         <v>6</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="40">
         <v>7</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="26" t="s">
+      <c r="E40" s="40"/>
+      <c r="F40" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="23" customFormat="1">
-      <c r="A41" s="18">
+      <c r="J40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="8" customFormat="1">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="40">
         <v>6</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="40">
         <v>8</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="26" t="s">
+      <c r="E41" s="40"/>
+      <c r="F41" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="33" customFormat="1">
-      <c r="A42" s="33">
+      <c r="J41" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="8" customFormat="1">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="40">
         <v>7</v>
       </c>
-      <c r="C42" s="34">
-        <v>1</v>
-      </c>
-      <c r="D42" s="35" t="s">
+      <c r="C42" s="40">
+        <v>1</v>
+      </c>
+      <c r="D42" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="34" t="s">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="33" customFormat="1">
-      <c r="A43" s="33">
+      <c r="J42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="8" customFormat="1">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="34">
+      <c r="B43" s="40">
         <v>7</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="40">
         <v>2</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="34" t="s">
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="33" customFormat="1">
-      <c r="A44" s="33">
+      <c r="J43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="8" customFormat="1">
+      <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="40">
         <v>7</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="40">
         <v>3</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="34" t="s">
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J44" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="33" customFormat="1">
-      <c r="A45" s="33">
+      <c r="J44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="8" customFormat="1">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="34">
+      <c r="B45" s="40">
         <v>7</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="40">
         <v>4</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="36" t="s">
+      <c r="E45" s="40"/>
+      <c r="F45" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="H45" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="33" customFormat="1">
-      <c r="A46" s="33">
+    <row r="46" spans="1:10" s="8" customFormat="1">
+      <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46" s="40">
         <v>7</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="40">
         <v>5</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="36" t="s">
+      <c r="E46" s="40"/>
+      <c r="F46" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="36" t="s">
+      <c r="G46" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="37" t="s">
+      <c r="H46" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J46" s="33">
+      <c r="J46" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="33" customFormat="1">
-      <c r="A47" s="33">
+    <row r="47" spans="1:10" s="8" customFormat="1">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="40">
         <v>7</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="40">
         <v>6</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="36" t="s">
+      <c r="E47" s="40"/>
+      <c r="F47" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G47" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="37" t="s">
+      <c r="H47" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="33">
+      <c r="J47" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="33" customFormat="1">
-      <c r="A48" s="33">
+    <row r="48" spans="1:10" s="8" customFormat="1">
+      <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="40">
         <v>7</v>
       </c>
-      <c r="C48" s="34">
+      <c r="C48" s="40">
         <v>7</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="36" t="s">
+      <c r="E48" s="40"/>
+      <c r="F48" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="36" t="s">
+      <c r="G48" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="37" t="s">
+      <c r="H48" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="33" customFormat="1">
-      <c r="A49" s="33">
+      <c r="J48" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="8" customFormat="1">
+      <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="34">
+      <c r="B49" s="40">
         <v>7</v>
       </c>
-      <c r="C49" s="34">
+      <c r="C49" s="40">
         <v>8</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="36" t="s">
+      <c r="E49" s="40"/>
+      <c r="F49" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="34" t="s">
+      <c r="H49" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J49" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="28" customFormat="1">
-      <c r="A50" s="28">
+      <c r="J49" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="8" customFormat="1">
+      <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="30">
+      <c r="B50" s="40">
         <v>8</v>
       </c>
-      <c r="C50" s="30">
-        <v>1</v>
-      </c>
-      <c r="D50" s="31" t="s">
+      <c r="C50" s="40">
+        <v>1</v>
+      </c>
+      <c r="D50" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="30" t="s">
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="28" customFormat="1">
-      <c r="A51" s="28">
+      <c r="J50" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="8" customFormat="1">
+      <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="40">
         <v>8</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="40">
         <v>2</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="30" t="s">
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="28" customFormat="1">
-      <c r="A52" s="28">
+      <c r="J51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="8" customFormat="1">
+      <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="30">
+      <c r="B52" s="40">
         <v>8</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="40">
         <v>3</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="30" t="s">
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="28" customFormat="1">
-      <c r="A53" s="28">
+      <c r="J52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="8" customFormat="1">
+      <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="30">
+      <c r="B53" s="40">
         <v>8</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="40">
         <v>4</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="32" t="s">
+      <c r="E53" s="40"/>
+      <c r="F53" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="32" t="s">
+      <c r="G53" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="H53" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="28" customFormat="1">
-      <c r="A54" s="28">
+    <row r="54" spans="1:10" s="8" customFormat="1">
+      <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54" s="30">
+      <c r="B54" s="40">
         <v>8</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="40">
         <v>5</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="32" t="s">
+      <c r="E54" s="40"/>
+      <c r="F54" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="32" t="s">
+      <c r="G54" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H54" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J54" s="28">
+      <c r="J54" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="28" customFormat="1">
-      <c r="A55" s="28">
+    <row r="55" spans="1:10" s="8" customFormat="1">
+      <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="40">
         <v>8</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="40">
         <v>6</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="32" t="s">
+      <c r="E55" s="40"/>
+      <c r="F55" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="32" t="s">
+      <c r="G55" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H55" s="29" t="s">
+      <c r="H55" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J55" s="28">
+      <c r="J55" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="28" customFormat="1">
-      <c r="A56" s="28">
+    <row r="56" spans="1:10" s="8" customFormat="1">
+      <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="30">
+      <c r="B56" s="40">
         <v>8</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="40">
         <v>7</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="32" t="s">
+      <c r="E56" s="40"/>
+      <c r="F56" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="32" t="s">
+      <c r="G56" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="29" t="s">
+      <c r="H56" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J56" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="28" customFormat="1">
-      <c r="A57" s="28">
+      <c r="J56" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="8" customFormat="1">
+      <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="40">
         <v>8</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C57" s="40">
         <v>8</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="32" t="s">
+      <c r="E57" s="40"/>
+      <c r="F57" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="32" t="s">
+      <c r="G57" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="H57" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="38" customFormat="1">
-      <c r="A58" s="38">
+      <c r="J57" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="8" customFormat="1">
+      <c r="A58" s="8">
         <v>57</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="40">
         <v>9</v>
       </c>
-      <c r="C58" s="43">
-        <v>1</v>
-      </c>
-      <c r="D58" s="44" t="s">
+      <c r="C58" s="40">
+        <v>1</v>
+      </c>
+      <c r="D58" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="43" t="s">
+      <c r="E58" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="43" t="s">
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J58" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="38" customFormat="1">
-      <c r="A59" s="38">
+      <c r="J58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="8" customFormat="1">
+      <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="43">
+      <c r="B59" s="40">
         <v>9</v>
       </c>
-      <c r="C59" s="43">
+      <c r="C59" s="40">
         <v>2</v>
       </c>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="E59" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="43" t="s">
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J59" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="38" customFormat="1">
-      <c r="A60" s="38">
+      <c r="J59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="8" customFormat="1">
+      <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="40">
         <v>9</v>
       </c>
-      <c r="C60" s="43">
+      <c r="C60" s="40">
         <v>3</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E60" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="43" t="s">
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J60" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="38" customFormat="1">
-      <c r="A61" s="38">
+      <c r="J60" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="8" customFormat="1">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="43">
+      <c r="B61" s="40">
         <v>9</v>
       </c>
-      <c r="C61" s="43">
+      <c r="C61" s="40">
         <v>4</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="43"/>
-      <c r="F61" s="45" t="s">
+      <c r="E61" s="40"/>
+      <c r="F61" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="45" t="s">
+      <c r="G61" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="43" t="s">
+      <c r="H61" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="38" customFormat="1">
-      <c r="A62" s="38">
+    <row r="62" spans="1:10" s="8" customFormat="1">
+      <c r="A62" s="8">
         <v>61</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="40">
         <v>9</v>
       </c>
-      <c r="C62" s="43">
+      <c r="C62" s="40">
         <v>5</v>
       </c>
-      <c r="D62" s="44" t="s">
+      <c r="D62" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="45" t="s">
+      <c r="E62" s="40"/>
+      <c r="F62" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="45" t="s">
+      <c r="G62" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="40" t="s">
+      <c r="H62" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J62" s="38">
+      <c r="J62" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="38" customFormat="1">
-      <c r="A63" s="38">
+    <row r="63" spans="1:10" s="8" customFormat="1">
+      <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="43">
+      <c r="B63" s="40">
         <v>9</v>
       </c>
-      <c r="C63" s="43">
+      <c r="C63" s="40">
         <v>6</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="45" t="s">
+      <c r="E63" s="40"/>
+      <c r="F63" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="45" t="s">
+      <c r="G63" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="40" t="s">
+      <c r="H63" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J63" s="38">
+      <c r="J63" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="38" customFormat="1">
-      <c r="A64" s="38">
+    <row r="64" spans="1:10" s="8" customFormat="1">
+      <c r="A64" s="8">
         <v>63</v>
       </c>
-      <c r="B64" s="43">
+      <c r="B64" s="40">
         <v>9</v>
       </c>
-      <c r="C64" s="43">
+      <c r="C64" s="40">
         <v>7</v>
       </c>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="43"/>
-      <c r="F64" s="45" t="s">
+      <c r="E64" s="40"/>
+      <c r="F64" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="45" t="s">
+      <c r="G64" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="40" t="s">
+      <c r="H64" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J64" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="38" customFormat="1">
-      <c r="A65" s="38">
+      <c r="J64" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="8" customFormat="1">
+      <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="43">
+      <c r="B65" s="40">
         <v>9</v>
       </c>
-      <c r="C65" s="43">
+      <c r="C65" s="40">
         <v>8</v>
       </c>
-      <c r="D65" s="44" t="s">
+      <c r="D65" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="43"/>
-      <c r="F65" s="45" t="s">
+      <c r="E65" s="40"/>
+      <c r="F65" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G65" s="45" t="s">
+      <c r="G65" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="43" t="s">
+      <c r="H65" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J65" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="41" customFormat="1">
-      <c r="A66" s="41">
+      <c r="J65" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="8" customFormat="1">
+      <c r="A66" s="8">
         <v>65</v>
       </c>
-      <c r="B66" s="46">
+      <c r="B66" s="40">
         <v>10</v>
       </c>
-      <c r="C66" s="46">
-        <v>1</v>
-      </c>
-      <c r="D66" s="47" t="s">
+      <c r="C66" s="40">
+        <v>1</v>
+      </c>
+      <c r="D66" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="E66" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="46" t="s">
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J66" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="41" customFormat="1">
-      <c r="A67" s="41">
+      <c r="J66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="8" customFormat="1">
+      <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="46">
+      <c r="B67" s="40">
         <v>10</v>
       </c>
-      <c r="C67" s="46">
+      <c r="C67" s="40">
         <v>2</v>
       </c>
-      <c r="D67" s="47" t="s">
+      <c r="D67" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="43" t="s">
+      <c r="E67" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="46" t="s">
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J67" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="41" customFormat="1">
-      <c r="A68" s="41">
+      <c r="J67" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="8" customFormat="1">
+      <c r="A68" s="8">
         <v>67</v>
       </c>
-      <c r="B68" s="46">
+      <c r="B68" s="40">
         <v>10</v>
       </c>
-      <c r="C68" s="46">
+      <c r="C68" s="40">
         <v>3</v>
       </c>
-      <c r="D68" s="47" t="s">
+      <c r="D68" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="43" t="s">
+      <c r="E68" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="46" t="s">
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J68" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="41" customFormat="1">
-      <c r="A69" s="41">
+      <c r="J68" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="8" customFormat="1">
+      <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="46">
+      <c r="B69" s="40">
         <v>10</v>
       </c>
-      <c r="C69" s="46">
+      <c r="C69" s="40">
         <v>4</v>
       </c>
-      <c r="D69" s="47" t="s">
+      <c r="D69" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="46"/>
-      <c r="F69" s="48" t="s">
+      <c r="E69" s="40"/>
+      <c r="F69" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="48" t="s">
+      <c r="G69" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H69" s="46" t="s">
+      <c r="H69" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="41" customFormat="1">
-      <c r="A70" s="41">
+    <row r="70" spans="1:10" s="8" customFormat="1">
+      <c r="A70" s="8">
         <v>69</v>
       </c>
-      <c r="B70" s="46">
+      <c r="B70" s="40">
         <v>10</v>
       </c>
-      <c r="C70" s="46">
+      <c r="C70" s="40">
         <v>5</v>
       </c>
-      <c r="D70" s="47" t="s">
+      <c r="D70" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="46"/>
-      <c r="F70" s="48" t="s">
+      <c r="E70" s="40"/>
+      <c r="F70" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="48" t="s">
+      <c r="G70" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="42" t="s">
+      <c r="H70" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J70" s="41">
+      <c r="J70" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="41" customFormat="1">
-      <c r="A71" s="41">
+    <row r="71" spans="1:10" s="8" customFormat="1">
+      <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="46">
+      <c r="B71" s="40">
         <v>10</v>
       </c>
-      <c r="C71" s="46">
+      <c r="C71" s="40">
         <v>6</v>
       </c>
-      <c r="D71" s="47" t="s">
+      <c r="D71" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="46"/>
-      <c r="F71" s="48" t="s">
+      <c r="E71" s="40"/>
+      <c r="F71" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="48" t="s">
+      <c r="G71" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="42" t="s">
+      <c r="H71" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J71" s="41">
+      <c r="J71" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="41" customFormat="1">
-      <c r="A72" s="41">
+    <row r="72" spans="1:10" s="8" customFormat="1">
+      <c r="A72" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="46">
+      <c r="B72" s="40">
         <v>10</v>
       </c>
-      <c r="C72" s="46">
+      <c r="C72" s="40">
         <v>7</v>
       </c>
-      <c r="D72" s="47" t="s">
+      <c r="D72" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="46"/>
-      <c r="F72" s="48" t="s">
+      <c r="E72" s="40"/>
+      <c r="F72" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="48" t="s">
+      <c r="G72" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="42" t="s">
+      <c r="H72" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J72" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="41" customFormat="1">
-      <c r="A73" s="41">
+      <c r="J72" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="8" customFormat="1">
+      <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="46">
+      <c r="B73" s="40">
         <v>10</v>
       </c>
-      <c r="C73" s="46">
+      <c r="C73" s="40">
         <v>8</v>
       </c>
-      <c r="D73" s="47" t="s">
+      <c r="D73" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="46"/>
-      <c r="F73" s="48" t="s">
+      <c r="E73" s="40"/>
+      <c r="F73" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="48" t="s">
+      <c r="G73" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H73" s="46" t="s">
+      <c r="H73" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J73" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="49" customFormat="1">
-      <c r="A74" s="49">
+      <c r="J73" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="8" customFormat="1">
+      <c r="A74" s="8">
         <v>73</v>
       </c>
-      <c r="B74" s="51">
+      <c r="B74" s="40">
         <v>11</v>
       </c>
-      <c r="C74" s="51">
-        <v>1</v>
-      </c>
-      <c r="D74" s="44" t="s">
+      <c r="C74" s="40">
+        <v>1</v>
+      </c>
+      <c r="D74" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="51" t="s">
+      <c r="E74" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="51" t="s">
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J74" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="49" customFormat="1">
-      <c r="A75" s="49">
+      <c r="J74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="8" customFormat="1">
+      <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="51">
+      <c r="B75" s="40">
         <v>11</v>
       </c>
-      <c r="C75" s="51">
+      <c r="C75" s="40">
         <v>2</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E75" s="51" t="s">
+      <c r="E75" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="51" t="s">
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="49" customFormat="1">
-      <c r="A76" s="49">
+      <c r="J75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="8" customFormat="1">
+      <c r="A76" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="51">
+      <c r="B76" s="40">
         <v>11</v>
       </c>
-      <c r="C76" s="51">
+      <c r="C76" s="40">
         <v>3</v>
       </c>
-      <c r="D76" s="44" t="s">
+      <c r="D76" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="51" t="s">
+      <c r="E76" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="51" t="s">
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J76" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="49" customFormat="1">
-      <c r="A77" s="49">
+      <c r="J76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="8" customFormat="1">
+      <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="51">
+      <c r="B77" s="40">
         <v>11</v>
       </c>
-      <c r="C77" s="51">
+      <c r="C77" s="40">
         <v>4</v>
       </c>
-      <c r="D77" s="44" t="s">
+      <c r="D77" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="51"/>
-      <c r="F77" s="52" t="s">
+      <c r="E77" s="40"/>
+      <c r="F77" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G77" s="52" t="s">
+      <c r="G77" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H77" s="51" t="s">
+      <c r="H77" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="49" customFormat="1">
-      <c r="A78" s="49">
+    <row r="78" spans="1:10" s="8" customFormat="1">
+      <c r="A78" s="8">
         <v>77</v>
       </c>
-      <c r="B78" s="51">
+      <c r="B78" s="40">
         <v>11</v>
       </c>
-      <c r="C78" s="51">
+      <c r="C78" s="40">
         <v>5</v>
       </c>
-      <c r="D78" s="44" t="s">
+      <c r="D78" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E78" s="51"/>
-      <c r="F78" s="52" t="s">
+      <c r="E78" s="40"/>
+      <c r="F78" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="52" t="s">
+      <c r="G78" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="50" t="s">
+      <c r="H78" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J78" s="49">
+      <c r="J78" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="49" customFormat="1">
-      <c r="A79" s="49">
+    <row r="79" spans="1:10" s="8" customFormat="1">
+      <c r="A79" s="8">
         <v>78</v>
       </c>
-      <c r="B79" s="51">
+      <c r="B79" s="40">
         <v>11</v>
       </c>
-      <c r="C79" s="51">
+      <c r="C79" s="40">
         <v>6</v>
       </c>
-      <c r="D79" s="44" t="s">
+      <c r="D79" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E79" s="51"/>
-      <c r="F79" s="52" t="s">
+      <c r="E79" s="40"/>
+      <c r="F79" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="52" t="s">
+      <c r="G79" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H79" s="50" t="s">
+      <c r="H79" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="49">
+      <c r="J79" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="49" customFormat="1">
-      <c r="A80" s="49">
+    <row r="80" spans="1:10" s="8" customFormat="1">
+      <c r="A80" s="8">
         <v>79</v>
       </c>
-      <c r="B80" s="51">
+      <c r="B80" s="40">
         <v>11</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="40">
         <v>7</v>
       </c>
-      <c r="D80" s="44" t="s">
+      <c r="D80" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="51"/>
-      <c r="F80" s="52" t="s">
+      <c r="E80" s="40"/>
+      <c r="F80" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="52" t="s">
+      <c r="G80" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="50" t="s">
+      <c r="H80" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J80" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="49" customFormat="1">
-      <c r="A81" s="49">
+      <c r="J80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="8" customFormat="1">
+      <c r="A81" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="51">
+      <c r="B81" s="40">
         <v>11</v>
       </c>
-      <c r="C81" s="51">
+      <c r="C81" s="40">
         <v>8</v>
       </c>
-      <c r="D81" s="44" t="s">
+      <c r="D81" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="51"/>
-      <c r="F81" s="52" t="s">
+      <c r="E81" s="40"/>
+      <c r="F81" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="52" t="s">
+      <c r="G81" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="51" t="s">
+      <c r="H81" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J81" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="49" customFormat="1">
-      <c r="A82" s="53">
+      <c r="J81" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="8" customFormat="1">
+      <c r="A82" s="8">
         <v>81</v>
       </c>
-      <c r="B82" s="54">
+      <c r="B82" s="40">
         <v>12</v>
       </c>
-      <c r="C82" s="54">
-        <v>1</v>
-      </c>
-      <c r="D82" s="55" t="s">
+      <c r="C82" s="40">
+        <v>1</v>
+      </c>
+      <c r="D82" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="54" t="s">
+      <c r="E82" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="54" t="s">
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="49" customFormat="1">
-      <c r="A83" s="53">
+      <c r="J82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="8" customFormat="1">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="54">
+      <c r="B83" s="40">
         <v>12</v>
       </c>
-      <c r="C83" s="54">
+      <c r="C83" s="40">
         <v>2</v>
       </c>
-      <c r="D83" s="55" t="s">
+      <c r="D83" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="54" t="s">
+      <c r="E83" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="54" t="s">
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="49" customFormat="1">
-      <c r="A84" s="53">
+      <c r="J83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="8" customFormat="1">
+      <c r="A84" s="8">
         <v>83</v>
       </c>
-      <c r="B84" s="54">
+      <c r="B84" s="40">
         <v>12</v>
       </c>
-      <c r="C84" s="54">
+      <c r="C84" s="40">
         <v>3</v>
       </c>
-      <c r="D84" s="55" t="s">
+      <c r="D84" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="54" t="s">
+      <c r="E84" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="54" t="s">
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="49" customFormat="1">
-      <c r="A85" s="53">
+      <c r="J84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="8" customFormat="1">
+      <c r="A85" s="8">
         <v>84</v>
       </c>
-      <c r="B85" s="54">
+      <c r="B85" s="40">
         <v>12</v>
       </c>
-      <c r="C85" s="54">
+      <c r="C85" s="40">
         <v>4</v>
       </c>
-      <c r="D85" s="55" t="s">
+      <c r="D85" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="54"/>
-      <c r="F85" s="56" t="s">
+      <c r="E85" s="40"/>
+      <c r="F85" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G85" s="56" t="s">
+      <c r="G85" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H85" s="54" t="s">
+      <c r="H85" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-    </row>
-    <row r="86" spans="1:10" s="49" customFormat="1">
-      <c r="A86" s="53">
+    </row>
+    <row r="86" spans="1:10" s="8" customFormat="1">
+      <c r="A86" s="8">
         <v>85</v>
       </c>
-      <c r="B86" s="54">
+      <c r="B86" s="40">
         <v>12</v>
       </c>
-      <c r="C86" s="54">
+      <c r="C86" s="40">
         <v>5</v>
       </c>
-      <c r="D86" s="55" t="s">
+      <c r="D86" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="54"/>
-      <c r="F86" s="56" t="s">
+      <c r="E86" s="40"/>
+      <c r="F86" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="56" t="s">
+      <c r="G86" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="57" t="s">
+      <c r="H86" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53">
+      <c r="J86" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="49" customFormat="1">
-      <c r="A87" s="53">
+    <row r="87" spans="1:10" s="8" customFormat="1">
+      <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="54">
+      <c r="B87" s="40">
         <v>12</v>
       </c>
-      <c r="C87" s="54">
+      <c r="C87" s="40">
         <v>6</v>
       </c>
-      <c r="D87" s="55" t="s">
+      <c r="D87" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E87" s="54"/>
-      <c r="F87" s="56" t="s">
+      <c r="E87" s="40"/>
+      <c r="F87" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="56" t="s">
+      <c r="G87" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H87" s="57" t="s">
+      <c r="H87" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53">
+      <c r="J87" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="49" customFormat="1">
-      <c r="A88" s="53">
+    <row r="88" spans="1:10" s="8" customFormat="1">
+      <c r="A88" s="8">
         <v>87</v>
       </c>
-      <c r="B88" s="54">
+      <c r="B88" s="40">
         <v>12</v>
       </c>
-      <c r="C88" s="54">
+      <c r="C88" s="40">
         <v>7</v>
       </c>
-      <c r="D88" s="55" t="s">
+      <c r="D88" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="54"/>
-      <c r="F88" s="56" t="s">
+      <c r="E88" s="40"/>
+      <c r="F88" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="56" t="s">
+      <c r="G88" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="57" t="s">
+      <c r="H88" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="49" customFormat="1">
-      <c r="A89" s="53">
+      <c r="J88" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="8" customFormat="1">
+      <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="54">
+      <c r="B89" s="40">
         <v>12</v>
       </c>
-      <c r="C89" s="54">
+      <c r="C89" s="40">
         <v>8</v>
       </c>
-      <c r="D89" s="55" t="s">
+      <c r="D89" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="54"/>
-      <c r="F89" s="56" t="s">
+      <c r="E89" s="40"/>
+      <c r="F89" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="56" t="s">
+      <c r="G89" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="54" t="s">
+      <c r="H89" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53">
+      <c r="J89" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="8" customFormat="1">
-      <c r="A90" s="53">
+      <c r="A90" s="8">
         <v>89</v>
       </c>
-      <c r="B90" s="51">
+      <c r="B90" s="40">
         <v>13</v>
       </c>
-      <c r="C90" s="51">
-        <v>1</v>
-      </c>
-      <c r="D90" s="44" t="s">
+      <c r="C90" s="40">
+        <v>1</v>
+      </c>
+      <c r="D90" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E90" s="51" t="s">
+      <c r="E90" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="51" t="s">
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="I90" s="49"/>
-      <c r="J90" s="49">
+      <c r="J90" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="8" customFormat="1">
-      <c r="A91" s="53">
+      <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="51">
+      <c r="B91" s="40">
         <v>13</v>
       </c>
-      <c r="C91" s="51">
+      <c r="C91" s="40">
         <v>2</v>
       </c>
-      <c r="D91" s="44" t="s">
+      <c r="D91" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E91" s="51" t="s">
+      <c r="E91" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="51" t="s">
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I91" s="49"/>
-      <c r="J91" s="49">
+      <c r="J91" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="8" customFormat="1">
-      <c r="A92" s="53">
+      <c r="A92" s="8">
         <v>91</v>
       </c>
-      <c r="B92" s="51">
+      <c r="B92" s="40">
         <v>13</v>
       </c>
-      <c r="C92" s="51">
+      <c r="C92" s="40">
         <v>3</v>
       </c>
-      <c r="D92" s="44" t="s">
+      <c r="D92" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="51" t="s">
+      <c r="E92" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="51" t="s">
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49">
+      <c r="J92" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="8" customFormat="1">
-      <c r="A93" s="53">
+      <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="51">
+      <c r="B93" s="40">
         <v>13</v>
       </c>
-      <c r="C93" s="51">
+      <c r="C93" s="40">
         <v>4</v>
       </c>
-      <c r="D93" s="44" t="s">
+      <c r="D93" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E93" s="51"/>
-      <c r="F93" s="52" t="s">
+      <c r="E93" s="40"/>
+      <c r="F93" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G93" s="52" t="s">
+      <c r="G93" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H93" s="51" t="s">
+      <c r="H93" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I93" s="49"/>
-      <c r="J93" s="49"/>
     </row>
     <row r="94" spans="1:10" s="8" customFormat="1">
-      <c r="A94" s="53">
+      <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="51">
+      <c r="B94" s="40">
         <v>13</v>
       </c>
-      <c r="C94" s="51">
+      <c r="C94" s="40">
         <v>5</v>
       </c>
-      <c r="D94" s="44" t="s">
+      <c r="D94" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E94" s="51"/>
-      <c r="F94" s="52" t="s">
+      <c r="E94" s="40"/>
+      <c r="F94" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G94" s="52" t="s">
+      <c r="G94" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="50" t="s">
+      <c r="H94" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I94" s="49"/>
-      <c r="J94" s="49">
+      <c r="J94" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="8" customFormat="1">
-      <c r="A95" s="53">
+      <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="51">
+      <c r="B95" s="40">
         <v>13</v>
       </c>
-      <c r="C95" s="51">
+      <c r="C95" s="40">
         <v>6</v>
       </c>
-      <c r="D95" s="44" t="s">
+      <c r="D95" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E95" s="51"/>
-      <c r="F95" s="52" t="s">
+      <c r="E95" s="40"/>
+      <c r="F95" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G95" s="52" t="s">
+      <c r="G95" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H95" s="50" t="s">
+      <c r="H95" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I95" s="49"/>
-      <c r="J95" s="49">
+      <c r="J95" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="8" customFormat="1">
-      <c r="A96" s="53">
+      <c r="A96" s="8">
         <v>95</v>
       </c>
-      <c r="B96" s="51">
+      <c r="B96" s="40">
         <v>13</v>
       </c>
-      <c r="C96" s="51">
+      <c r="C96" s="40">
         <v>7</v>
       </c>
-      <c r="D96" s="44" t="s">
+      <c r="D96" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="51"/>
-      <c r="F96" s="52" t="s">
+      <c r="E96" s="40"/>
+      <c r="F96" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G96" s="52" t="s">
+      <c r="G96" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H96" s="50" t="s">
+      <c r="H96" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="I96" s="49"/>
-      <c r="J96" s="49">
+      <c r="J96" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="8" customFormat="1">
-      <c r="A97" s="53">
+      <c r="A97" s="8">
         <v>96</v>
       </c>
-      <c r="B97" s="51">
+      <c r="B97" s="40">
         <v>13</v>
       </c>
-      <c r="C97" s="51">
+      <c r="C97" s="40">
         <v>8</v>
       </c>
-      <c r="D97" s="44" t="s">
+      <c r="D97" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="51"/>
-      <c r="F97" s="52" t="s">
+      <c r="E97" s="40"/>
+      <c r="F97" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G97" s="52" t="s">
+      <c r="G97" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H97" s="51" t="s">
+      <c r="H97" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="I97" s="49"/>
-      <c r="J97" s="49">
+      <c r="J97" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="8" customFormat="1">
-      <c r="A98" s="53">
+      <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="54">
+      <c r="B98" s="40">
         <v>14</v>
       </c>
-      <c r="C98" s="54">
-        <v>1</v>
-      </c>
-      <c r="D98" s="55" t="s">
+      <c r="C98" s="40">
+        <v>1</v>
+      </c>
+      <c r="D98" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E98" s="51" t="s">
+      <c r="E98" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="56"/>
-      <c r="G98" s="56"/>
-      <c r="H98" s="54" t="s">
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53">
+      <c r="J98" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="8" customFormat="1">
-      <c r="A99" s="53">
+      <c r="A99" s="8">
         <v>98</v>
       </c>
-      <c r="B99" s="54">
+      <c r="B99" s="40">
         <v>14</v>
       </c>
-      <c r="C99" s="54">
+      <c r="C99" s="40">
         <v>2</v>
       </c>
-      <c r="D99" s="55" t="s">
+      <c r="D99" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E99" s="51" t="s">
+      <c r="E99" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F99" s="56"/>
-      <c r="G99" s="56"/>
-      <c r="H99" s="54" t="s">
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53">
+      <c r="J99" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="8" customFormat="1">
-      <c r="A100" s="53">
+      <c r="A100" s="8">
         <v>99</v>
       </c>
-      <c r="B100" s="54">
+      <c r="B100" s="40">
         <v>14</v>
       </c>
-      <c r="C100" s="54">
+      <c r="C100" s="40">
         <v>3</v>
       </c>
-      <c r="D100" s="55" t="s">
+      <c r="D100" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E100" s="51" t="s">
+      <c r="E100" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="54" t="s">
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53">
+      <c r="J100" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="8" customFormat="1">
-      <c r="A101" s="53">
+      <c r="A101" s="8">
         <v>100</v>
       </c>
-      <c r="B101" s="54">
+      <c r="B101" s="40">
         <v>14</v>
       </c>
-      <c r="C101" s="54">
+      <c r="C101" s="40">
         <v>4</v>
       </c>
-      <c r="D101" s="55" t="s">
+      <c r="D101" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="54"/>
-      <c r="F101" s="56" t="s">
+      <c r="E101" s="40"/>
+      <c r="F101" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="56" t="s">
+      <c r="G101" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H101" s="54" t="s">
+      <c r="H101" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I101" s="53"/>
-      <c r="J101" s="53"/>
     </row>
     <row r="102" spans="1:10" s="8" customFormat="1">
-      <c r="A102" s="53">
+      <c r="A102" s="8">
         <v>101</v>
       </c>
-      <c r="B102" s="54">
+      <c r="B102" s="40">
         <v>14</v>
       </c>
-      <c r="C102" s="54">
+      <c r="C102" s="40">
         <v>5</v>
       </c>
-      <c r="D102" s="55" t="s">
+      <c r="D102" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E102" s="54"/>
-      <c r="F102" s="56" t="s">
+      <c r="E102" s="40"/>
+      <c r="F102" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="56" t="s">
+      <c r="G102" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="57" t="s">
+      <c r="H102" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I102" s="53"/>
-      <c r="J102" s="53">
+      <c r="J102" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="8" customFormat="1">
-      <c r="A103" s="53">
+      <c r="A103" s="8">
         <v>102</v>
       </c>
-      <c r="B103" s="54">
+      <c r="B103" s="40">
         <v>14</v>
       </c>
-      <c r="C103" s="54">
+      <c r="C103" s="40">
         <v>6</v>
       </c>
-      <c r="D103" s="55" t="s">
+      <c r="D103" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E103" s="54"/>
-      <c r="F103" s="56" t="s">
+      <c r="E103" s="40"/>
+      <c r="F103" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="56" t="s">
+      <c r="G103" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H103" s="57" t="s">
+      <c r="H103" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I103" s="53"/>
-      <c r="J103" s="53">
+      <c r="J103" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="8" customFormat="1">
-      <c r="A104" s="53">
+      <c r="A104" s="8">
         <v>103</v>
       </c>
-      <c r="B104" s="54">
+      <c r="B104" s="40">
         <v>14</v>
       </c>
-      <c r="C104" s="54">
+      <c r="C104" s="40">
         <v>7</v>
       </c>
-      <c r="D104" s="55" t="s">
+      <c r="D104" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E104" s="54"/>
-      <c r="F104" s="56" t="s">
+      <c r="E104" s="40"/>
+      <c r="F104" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G104" s="56" t="s">
+      <c r="G104" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H104" s="57" t="s">
+      <c r="H104" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="I104" s="53"/>
-      <c r="J104" s="53">
+      <c r="J104" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="8" customFormat="1">
-      <c r="A105" s="53">
+      <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="54">
+      <c r="B105" s="40">
         <v>14</v>
       </c>
-      <c r="C105" s="54">
+      <c r="C105" s="40">
         <v>8</v>
       </c>
-      <c r="D105" s="55" t="s">
+      <c r="D105" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E105" s="54"/>
-      <c r="F105" s="56" t="s">
+      <c r="E105" s="40"/>
+      <c r="F105" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G105" s="56" t="s">
+      <c r="G105" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H105" s="54" t="s">
+      <c r="H105" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="I105" s="53"/>
-      <c r="J105" s="53">
+      <c r="J105" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="8" customFormat="1">
-      <c r="A106" s="53">
+      <c r="A106" s="8">
         <v>105</v>
       </c>
-      <c r="B106" s="51">
+      <c r="B106" s="26">
         <v>15</v>
       </c>
-      <c r="C106" s="51">
-        <v>1</v>
-      </c>
-      <c r="D106" s="44" t="s">
+      <c r="C106" s="26">
+        <v>1</v>
+      </c>
+      <c r="D106" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E106" s="51" t="s">
+      <c r="E106" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="F106" s="52"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="51" t="s">
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="I106" s="49"/>
-      <c r="J106" s="49">
+      <c r="I106" s="25"/>
+      <c r="J106" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="8" customFormat="1">
-      <c r="A107" s="53">
+      <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="51">
+      <c r="B107" s="26">
         <v>15</v>
       </c>
-      <c r="C107" s="51">
+      <c r="C107" s="26">
         <v>2</v>
       </c>
-      <c r="D107" s="44" t="s">
+      <c r="D107" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E107" s="51" t="s">
+      <c r="E107" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="F107" s="52"/>
-      <c r="G107" s="52"/>
-      <c r="H107" s="51" t="s">
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I107" s="49"/>
-      <c r="J107" s="49">
+      <c r="I107" s="25"/>
+      <c r="J107" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="8" customFormat="1">
-      <c r="A108" s="53">
+      <c r="A108" s="8">
         <v>107</v>
       </c>
-      <c r="B108" s="51">
+      <c r="B108" s="26">
         <v>15</v>
       </c>
-      <c r="C108" s="51">
+      <c r="C108" s="26">
         <v>3</v>
       </c>
-      <c r="D108" s="44" t="s">
+      <c r="D108" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E108" s="51" t="s">
+      <c r="E108" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="F108" s="52"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="51" t="s">
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I108" s="49"/>
-      <c r="J108" s="49">
+      <c r="I108" s="25"/>
+      <c r="J108" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="8" customFormat="1">
-      <c r="A109" s="53">
+      <c r="A109" s="8">
         <v>108</v>
       </c>
-      <c r="B109" s="51">
+      <c r="B109" s="26">
         <v>15</v>
       </c>
-      <c r="C109" s="51">
+      <c r="C109" s="26">
         <v>4</v>
       </c>
-      <c r="D109" s="44" t="s">
+      <c r="D109" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E109" s="51"/>
-      <c r="F109" s="52" t="s">
+      <c r="E109" s="26"/>
+      <c r="F109" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G109" s="52" t="s">
+      <c r="G109" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H109" s="51" t="s">
+      <c r="H109" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I109" s="49"/>
-      <c r="J109" s="49"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
     </row>
     <row r="110" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A110" s="53">
+      <c r="A110" s="8">
         <v>109</v>
       </c>
-      <c r="B110" s="51">
+      <c r="B110" s="26">
         <v>15</v>
       </c>
-      <c r="C110" s="51">
+      <c r="C110" s="26">
         <v>5</v>
       </c>
-      <c r="D110" s="44" t="s">
+      <c r="D110" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E110" s="51"/>
-      <c r="F110" s="61" t="s">
+      <c r="E110" s="26"/>
+      <c r="F110" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H110" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A111" s="8">
+        <v>110</v>
+      </c>
+      <c r="B111" s="26">
+        <v>15</v>
+      </c>
+      <c r="C111" s="26">
+        <v>6</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E111" s="26"/>
+      <c r="F111" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="G111" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H111" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="8" customFormat="1">
+      <c r="A112" s="8">
+        <v>111</v>
+      </c>
+      <c r="B112" s="26">
+        <v>15</v>
+      </c>
+      <c r="C112" s="26">
+        <v>7</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E112" s="26"/>
+      <c r="F112" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H112" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="B113" s="26">
+        <v>15</v>
+      </c>
+      <c r="C113" s="26">
+        <v>8</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E113" s="26"/>
+      <c r="F113" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="G113" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H113" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="8" customFormat="1">
+      <c r="A114" s="8">
+        <v>113</v>
+      </c>
+      <c r="B114" s="23">
+        <v>16</v>
+      </c>
+      <c r="C114" s="23">
+        <v>1</v>
+      </c>
+      <c r="D114" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="8" customFormat="1">
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="B115" s="23">
+        <v>16</v>
+      </c>
+      <c r="C115" s="23">
+        <v>2</v>
+      </c>
+      <c r="D115" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="8" customFormat="1">
+      <c r="A116" s="8">
+        <v>115</v>
+      </c>
+      <c r="B116" s="23">
+        <v>16</v>
+      </c>
+      <c r="C116" s="23">
+        <v>3</v>
+      </c>
+      <c r="D116" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="8" customFormat="1">
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
+      <c r="B117" s="23">
+        <v>16</v>
+      </c>
+      <c r="C117" s="23">
+        <v>4</v>
+      </c>
+      <c r="D117" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" s="23"/>
+      <c r="F117" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+    </row>
+    <row r="118" spans="1:10" s="8" customFormat="1">
+      <c r="A118" s="8">
+        <v>117</v>
+      </c>
+      <c r="B118" s="23">
+        <v>16</v>
+      </c>
+      <c r="C118" s="23">
+        <v>5</v>
+      </c>
+      <c r="D118" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" s="23"/>
+      <c r="F118" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G118" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="8" customFormat="1">
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
+      <c r="B119" s="23">
+        <v>16</v>
+      </c>
+      <c r="C119" s="23">
+        <v>6</v>
+      </c>
+      <c r="D119" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" s="23"/>
+      <c r="F119" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G119" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="G110" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="H110" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="I110" s="49"/>
-      <c r="J110" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A111" s="53">
-        <v>110</v>
-      </c>
-      <c r="B111" s="51">
-        <v>15</v>
-      </c>
-      <c r="C111" s="51">
-        <v>6</v>
-      </c>
-      <c r="D111" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="E111" s="51"/>
-      <c r="F111" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="G111" s="52" t="s">
+      <c r="H119" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="8" customFormat="1">
+      <c r="A120" s="8">
+        <v>119</v>
+      </c>
+      <c r="B120" s="23">
+        <v>16</v>
+      </c>
+      <c r="C120" s="23">
+        <v>7</v>
+      </c>
+      <c r="D120" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" s="23"/>
+      <c r="F120" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H120" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="8" customFormat="1">
+      <c r="A121" s="8">
+        <v>120</v>
+      </c>
+      <c r="B121" s="23">
+        <v>16</v>
+      </c>
+      <c r="C121" s="23">
+        <v>8</v>
+      </c>
+      <c r="D121" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E121" s="23"/>
+      <c r="F121" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="H111" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="I111" s="49"/>
-      <c r="J111" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" s="8" customFormat="1">
-      <c r="A112" s="53">
-        <v>111</v>
-      </c>
-      <c r="B112" s="51">
-        <v>15</v>
-      </c>
-      <c r="C112" s="51">
-        <v>7</v>
-      </c>
-      <c r="D112" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="E112" s="51"/>
-      <c r="F112" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G112" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="H112" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="I112" s="49"/>
-      <c r="J112" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A113" s="53">
-        <v>112</v>
-      </c>
-      <c r="B113" s="51">
-        <v>15</v>
-      </c>
-      <c r="C113" s="51">
-        <v>8</v>
-      </c>
-      <c r="D113" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="E113" s="51"/>
-      <c r="F113" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="G113" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="H113" s="51" t="s">
+      <c r="G121" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H121" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I113" s="49"/>
-      <c r="J113" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="8" customFormat="1">
-      <c r="A114" s="53">
-        <v>113</v>
-      </c>
-      <c r="B114" s="54">
-        <v>16</v>
-      </c>
-      <c r="C114" s="54">
-        <v>1</v>
-      </c>
-      <c r="D114" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E114" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56"/>
-      <c r="H114" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="I114" s="53"/>
-      <c r="J114" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="8" customFormat="1">
-      <c r="A115" s="53">
-        <v>114</v>
-      </c>
-      <c r="B115" s="54">
-        <v>16</v>
-      </c>
-      <c r="C115" s="54">
-        <v>2</v>
-      </c>
-      <c r="D115" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E115" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="F115" s="56"/>
-      <c r="G115" s="56"/>
-      <c r="H115" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="I115" s="53"/>
-      <c r="J115" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="8" customFormat="1">
-      <c r="A116" s="53">
-        <v>115</v>
-      </c>
-      <c r="B116" s="54">
-        <v>16</v>
-      </c>
-      <c r="C116" s="54">
-        <v>3</v>
-      </c>
-      <c r="D116" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E116" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="F116" s="56"/>
-      <c r="G116" s="56"/>
-      <c r="H116" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" s="8" customFormat="1">
-      <c r="A117" s="53">
-        <v>116</v>
-      </c>
-      <c r="B117" s="54">
-        <v>16</v>
-      </c>
-      <c r="C117" s="54">
-        <v>4</v>
-      </c>
-      <c r="D117" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E117" s="54"/>
-      <c r="F117" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="G117" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="H117" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="I117" s="53"/>
-      <c r="J117" s="53"/>
-    </row>
-    <row r="118" spans="1:10" s="8" customFormat="1">
-      <c r="A118" s="53">
-        <v>117</v>
-      </c>
-      <c r="B118" s="54">
-        <v>16</v>
-      </c>
-      <c r="C118" s="54">
-        <v>5</v>
-      </c>
-      <c r="D118" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E118" s="54"/>
-      <c r="F118" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="G118" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="H118" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="I118" s="53"/>
-      <c r="J118" s="53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" s="8" customFormat="1">
-      <c r="A119" s="53">
-        <v>118</v>
-      </c>
-      <c r="B119" s="54">
-        <v>16</v>
-      </c>
-      <c r="C119" s="54">
-        <v>6</v>
-      </c>
-      <c r="D119" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E119" s="54"/>
-      <c r="F119" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="G119" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="H119" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="I119" s="53"/>
-      <c r="J119" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" s="8" customFormat="1">
-      <c r="A120" s="53">
-        <v>119</v>
-      </c>
-      <c r="B120" s="54">
-        <v>16</v>
-      </c>
-      <c r="C120" s="54">
-        <v>7</v>
-      </c>
-      <c r="D120" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E120" s="54"/>
-      <c r="F120" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="G120" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H120" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="I120" s="53"/>
-      <c r="J120" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="8" customFormat="1">
-      <c r="A121" s="53">
-        <v>120</v>
-      </c>
-      <c r="B121" s="54">
-        <v>16</v>
-      </c>
-      <c r="C121" s="54">
-        <v>8</v>
-      </c>
-      <c r="D121" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E121" s="54"/>
-      <c r="F121" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="G121" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="H121" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53">
+      <c r="I121" s="21"/>
+      <c r="J121" s="21">
         <v>1</v>
       </c>
     </row>
